--- a/Agent1.xlsx
+++ b/Agent1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanzk\OneDrive\Desktop\Rutgers\520\GhostMaze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36578BE4-20BD-43F6-9349-99C3C6B6765C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F40D8C-9A2C-418D-9492-F00BEF0D041A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$501</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="504">
   <si>
     <t>StatusCode</t>
   </si>
@@ -37,364 +37,1504 @@
     <t>GhostCount</t>
   </si>
   <si>
-    <t>0.0820346999999999</t>
-  </si>
-  <si>
-    <t>0.05925200000000008</t>
-  </si>
-  <si>
-    <t>0.058130500000000085</t>
-  </si>
-  <si>
-    <t>0.06974530000000012</t>
-  </si>
-  <si>
-    <t>0.11089079999999996</t>
-  </si>
-  <si>
-    <t>0.0914393</t>
-  </si>
-  <si>
-    <t>0.1542987</t>
-  </si>
-  <si>
-    <t>0.08287249999999968</t>
-  </si>
-  <si>
-    <t>0.08273410000000014</t>
-  </si>
-  <si>
-    <t>0.09027640000000003</t>
-  </si>
-  <si>
-    <t>0.10122959999999992</t>
-  </si>
-  <si>
-    <t>0.06676690000000018</t>
-  </si>
-  <si>
-    <t>0.06556909999999982</t>
-  </si>
-  <si>
-    <t>0.09279480000000007</t>
-  </si>
-  <si>
-    <t>0.0855264</t>
-  </si>
-  <si>
-    <t>0.0755300000000001</t>
-  </si>
-  <si>
-    <t>0.10287639999999998</t>
-  </si>
-  <si>
-    <t>0.08279559999999986</t>
-  </si>
-  <si>
-    <t>0.10245179999999987</t>
-  </si>
-  <si>
-    <t>0.09215360000000006</t>
-  </si>
-  <si>
-    <t>0.14711039999999986</t>
-  </si>
-  <si>
-    <t>0.15867980000000026</t>
-  </si>
-  <si>
-    <t>0.15975019999999995</t>
-  </si>
-  <si>
-    <t>0.07042320000000002</t>
-  </si>
-  <si>
-    <t>0.16555359999999997</t>
-  </si>
-  <si>
-    <t>0.11391280000000004</t>
-  </si>
-  <si>
-    <t>0.14824189999999993</t>
-  </si>
-  <si>
-    <t>0.1229629000000001</t>
-  </si>
-  <si>
-    <t>0.13909000000000038</t>
-  </si>
-  <si>
-    <t>0.11179429999999968</t>
-  </si>
-  <si>
-    <t>0.08318560000000019</t>
-  </si>
-  <si>
-    <t>0.1287894999999999</t>
-  </si>
-  <si>
-    <t>0.17747560000000018</t>
-  </si>
-  <si>
-    <t>0.12060039999999983</t>
-  </si>
-  <si>
-    <t>0.05273299999999992</t>
-  </si>
-  <si>
-    <t>0.10261880000000012</t>
-  </si>
-  <si>
-    <t>0.10486059999999942</t>
-  </si>
-  <si>
-    <t>0.12630349999999968</t>
-  </si>
-  <si>
-    <t>0.07580570000000009</t>
-  </si>
-  <si>
-    <t>0.10500540000000047</t>
-  </si>
-  <si>
-    <t>0.06775799999999998</t>
-  </si>
-  <si>
-    <t>0.04095899999999997</t>
-  </si>
-  <si>
-    <t>0.07754379999999994</t>
-  </si>
-  <si>
-    <t>0.044944899999999954</t>
-  </si>
-  <si>
-    <t>0.05034089999999991</t>
-  </si>
-  <si>
-    <t>0.08788010000000002</t>
-  </si>
-  <si>
-    <t>0.11641860000000004</t>
-  </si>
-  <si>
-    <t>0.10358909999999999</t>
-  </si>
-  <si>
-    <t>0.16637180000000007</t>
-  </si>
-  <si>
-    <t>0.16049399999999991</t>
-  </si>
-  <si>
-    <t>0.11640000000000006</t>
-  </si>
-  <si>
-    <t>0.1289912000000002</t>
-  </si>
-  <si>
-    <t>0.10153959999999973</t>
-  </si>
-  <si>
-    <t>0.029846400000000273</t>
-  </si>
-  <si>
-    <t>0.06505470000000013</t>
-  </si>
-  <si>
-    <t>0.2087116</t>
-  </si>
-  <si>
-    <t>0.11831229999999993</t>
-  </si>
-  <si>
-    <t>0.10879430000000001</t>
-  </si>
-  <si>
-    <t>0.08228640000000009</t>
-  </si>
-  <si>
-    <t>0.09333610000000014</t>
-  </si>
-  <si>
-    <t>0.057149100000000175</t>
-  </si>
-  <si>
-    <t>0.14255869999999993</t>
-  </si>
-  <si>
-    <t>0.11353029999999986</t>
-  </si>
-  <si>
-    <t>0.1251030000000002</t>
-  </si>
-  <si>
-    <t>0.09051480000000023</t>
-  </si>
-  <si>
-    <t>0.19596680000000033</t>
-  </si>
-  <si>
-    <t>0.13756030000000052</t>
-  </si>
-  <si>
-    <t>0.10899579999999975</t>
-  </si>
-  <si>
-    <t>0.11825300000000016</t>
-  </si>
-  <si>
-    <t>0.0666935000000004</t>
-  </si>
-  <si>
-    <t>0.06268350000000034</t>
-  </si>
-  <si>
-    <t>0.1088091999999996</t>
-  </si>
-  <si>
-    <t>0.09593779999999974</t>
-  </si>
-  <si>
-    <t>0.13370239999999978</t>
-  </si>
-  <si>
-    <t>0.14270160000000054</t>
-  </si>
-  <si>
-    <t>0.12246929999999967</t>
-  </si>
-  <si>
-    <t>0.10387600000000052</t>
-  </si>
-  <si>
-    <t>0.15857960000000038</t>
-  </si>
-  <si>
-    <t>0.13751399999999947</t>
-  </si>
-  <si>
-    <t>0.08027979999999957</t>
-  </si>
-  <si>
-    <t>0.054084300000000196</t>
-  </si>
-  <si>
-    <t>0.06608239999999999</t>
-  </si>
-  <si>
-    <t>0.04968269999999997</t>
-  </si>
-  <si>
-    <t>0.07829960000000002</t>
-  </si>
-  <si>
-    <t>0.0545173000000001</t>
-  </si>
-  <si>
-    <t>0.09034539999999991</t>
-  </si>
-  <si>
-    <t>0.14081180000000004</t>
-  </si>
-  <si>
-    <t>0.1784652</t>
-  </si>
-  <si>
-    <t>0.12575659999999989</t>
-  </si>
-  <si>
-    <t>0.10717580000000027</t>
-  </si>
-  <si>
-    <t>0.10341690000000003</t>
-  </si>
-  <si>
-    <t>0.06334229999999996</t>
-  </si>
-  <si>
-    <t>0.08238719999999988</t>
-  </si>
-  <si>
-    <t>0.10043659999999965</t>
-  </si>
-  <si>
-    <t>0.10712080000000013</t>
-  </si>
-  <si>
-    <t>0.06679379999999968</t>
-  </si>
-  <si>
-    <t>0.12791979999999992</t>
-  </si>
-  <si>
-    <t>0.12345689999999987</t>
-  </si>
-  <si>
-    <t>0.12402969999999991</t>
-  </si>
-  <si>
-    <t>0.10809410000000019</t>
-  </si>
-  <si>
-    <t>0.10565859999999994</t>
-  </si>
-  <si>
-    <t>0.04407670000000019</t>
-  </si>
-  <si>
-    <t>0.12010239999999994</t>
-  </si>
-  <si>
-    <t>0.2657913999999999</t>
-  </si>
-  <si>
-    <t>0.10002209999999989</t>
-  </si>
-  <si>
-    <t>0.11174250000000052</t>
-  </si>
-  <si>
-    <t>0.11425650000000065</t>
-  </si>
-  <si>
-    <t>0.1853398000000004</t>
-  </si>
-  <si>
-    <t>0.08510749999999945</t>
-  </si>
-  <si>
-    <t>0.1334514999999996</t>
-  </si>
-  <si>
-    <t>0.09413080000000029</t>
-  </si>
-  <si>
-    <t>0.08850040000000003</t>
-  </si>
-  <si>
-    <t>0.09862599999999944</t>
-  </si>
-  <si>
-    <t>0.08885369999999959</t>
-  </si>
-  <si>
-    <t>0.16973760000000038</t>
-  </si>
-  <si>
-    <t>0.08679419999999993</t>
-  </si>
-  <si>
-    <t>0.1172443999999997</t>
-  </si>
-  <si>
-    <t>0.12469519999999967</t>
-  </si>
-  <si>
-    <t>0.18069229999999958</t>
-  </si>
-  <si>
-    <t>0.09166519999999956</t>
+    <t>0.032555200000000006</t>
+  </si>
+  <si>
+    <t>0.056924500000000045</t>
+  </si>
+  <si>
+    <t>0.05028799999999989</t>
+  </si>
+  <si>
+    <t>0.0602583000000001</t>
+  </si>
+  <si>
+    <t>0.03107850000000001</t>
+  </si>
+  <si>
+    <t>0.03836419999999996</t>
+  </si>
+  <si>
+    <t>0.06720439999999983</t>
+  </si>
+  <si>
+    <t>0.04777679999999984</t>
+  </si>
+  <si>
+    <t>0.08497189999999999</t>
+  </si>
+  <si>
+    <t>0.02404189999999984</t>
+  </si>
+  <si>
+    <t>0.04189889999999985</t>
+  </si>
+  <si>
+    <t>0.07643479999999991</t>
+  </si>
+  <si>
+    <t>0.033836100000000036</t>
+  </si>
+  <si>
+    <t>0.04762709999999992</t>
+  </si>
+  <si>
+    <t>0.0830902</t>
+  </si>
+  <si>
+    <t>0.05172029999999994</t>
+  </si>
+  <si>
+    <t>0.0673543999999997</t>
+  </si>
+  <si>
+    <t>0.03329409999999999</t>
+  </si>
+  <si>
+    <t>0.0740666000000001</t>
+  </si>
+  <si>
+    <t>0.05591990000000013</t>
+  </si>
+  <si>
+    <t>0.04977520000000002</t>
+  </si>
+  <si>
+    <t>0.06619419999999998</t>
+  </si>
+  <si>
+    <t>0.06196719999999978</t>
+  </si>
+  <si>
+    <t>0.04221169999999974</t>
+  </si>
+  <si>
+    <t>0.1642983</t>
+  </si>
+  <si>
+    <t>0.09096200000000021</t>
+  </si>
+  <si>
+    <t>0.08264680000000002</t>
+  </si>
+  <si>
+    <t>0.07991629999999983</t>
+  </si>
+  <si>
+    <t>0.12627909999999964</t>
+  </si>
+  <si>
+    <t>0.06971210000000028</t>
+  </si>
+  <si>
+    <t>0.07506000000000013</t>
+  </si>
+  <si>
+    <t>0.05390169999999994</t>
+  </si>
+  <si>
+    <t>0.049218900000000065</t>
+  </si>
+  <si>
+    <t>0.05089750000000004</t>
+  </si>
+  <si>
+    <t>0.04777940000000003</t>
+  </si>
+  <si>
+    <t>0.033208500000000196</t>
+  </si>
+  <si>
+    <t>0.02786040000000023</t>
+  </si>
+  <si>
+    <t>0.047449799999999875</t>
+  </si>
+  <si>
+    <t>0.06785649999999999</t>
+  </si>
+  <si>
+    <t>0.10080369999999972</t>
+  </si>
+  <si>
+    <t>0.06669610000000015</t>
+  </si>
+  <si>
+    <t>0.06994210000000001</t>
+  </si>
+  <si>
+    <t>0.04549279999999989</t>
+  </si>
+  <si>
+    <t>0.06814299999999962</t>
+  </si>
+  <si>
+    <t>0.08355110000000021</t>
+  </si>
+  <si>
+    <t>0.0707924000000002</t>
+  </si>
+  <si>
+    <t>0.04690149999999971</t>
+  </si>
+  <si>
+    <t>0.06683970000000006</t>
+  </si>
+  <si>
+    <t>0.10957920000000065</t>
+  </si>
+  <si>
+    <t>0.049305000000000376</t>
+  </si>
+  <si>
+    <t>0.08556530000000007</t>
+  </si>
+  <si>
+    <t>0.10544149999999997</t>
+  </si>
+  <si>
+    <t>0.09621020000000002</t>
+  </si>
+  <si>
+    <t>0.04660580000000003</t>
+  </si>
+  <si>
+    <t>0.058759000000000006</t>
+  </si>
+  <si>
+    <t>0.12177029999999989</t>
+  </si>
+  <si>
+    <t>0.09178249999999988</t>
+  </si>
+  <si>
+    <t>0.07313310000000017</t>
+  </si>
+  <si>
+    <t>0.06090119999999999</t>
+  </si>
+  <si>
+    <t>0.04576810000000009</t>
+  </si>
+  <si>
+    <t>0.1268056999999998</t>
+  </si>
+  <si>
+    <t>0.05702970000000018</t>
+  </si>
+  <si>
+    <t>0.06156830000000024</t>
+  </si>
+  <si>
+    <t>0.055786299999999844</t>
+  </si>
+  <si>
+    <t>0.09709379999999967</t>
+  </si>
+  <si>
+    <t>0.13661509999999977</t>
+  </si>
+  <si>
+    <t>0.06302390000000013</t>
+  </si>
+  <si>
+    <t>0.08173090000000016</t>
+  </si>
+  <si>
+    <t>0.05572789999999994</t>
+  </si>
+  <si>
+    <t>0.054408800000000035</t>
+  </si>
+  <si>
+    <t>0.08118390000000009</t>
+  </si>
+  <si>
+    <t>0.08586709999999975</t>
+  </si>
+  <si>
+    <t>0.13275140000000007</t>
+  </si>
+  <si>
+    <t>0.04371919999999996</t>
+  </si>
+  <si>
+    <t>0.07473370000000035</t>
+  </si>
+  <si>
+    <t>0.1172553999999999</t>
+  </si>
+  <si>
+    <t>0.08902140000000003</t>
+  </si>
+  <si>
+    <t>0.10419</t>
+  </si>
+  <si>
+    <t>0.058640100000000306</t>
+  </si>
+  <si>
+    <t>0.09369420000000028</t>
+  </si>
+  <si>
+    <t>0.07207969999999975</t>
+  </si>
+  <si>
+    <t>0.0839304000000003</t>
+  </si>
+  <si>
+    <t>0.11450300000000002</t>
+  </si>
+  <si>
+    <t>0.04733240000000016</t>
+  </si>
+  <si>
+    <t>0.061510900000000035</t>
+  </si>
+  <si>
+    <t>0.05206419999999934</t>
+  </si>
+  <si>
+    <t>0.05303320000000067</t>
+  </si>
+  <si>
+    <t>0.09402829999999973</t>
+  </si>
+  <si>
+    <t>0.07691720000000046</t>
+  </si>
+  <si>
+    <t>0.06762589999999946</t>
+  </si>
+  <si>
+    <t>0.04527560000000008</t>
+  </si>
+  <si>
+    <t>0.1036267000000004</t>
+  </si>
+  <si>
+    <t>0.05988569999999971</t>
+  </si>
+  <si>
+    <t>0.06854840000000006</t>
+  </si>
+  <si>
+    <t>0.05081480000000038</t>
+  </si>
+  <si>
+    <t>0.13155620000000035</t>
+  </si>
+  <si>
+    <t>0.060409100000000215</t>
+  </si>
+  <si>
+    <t>0.0435333</t>
+  </si>
+  <si>
+    <t>0.07293100000000052</t>
+  </si>
+  <si>
+    <t>0.06460319999999964</t>
+  </si>
+  <si>
+    <t>0.05143569999999986</t>
+  </si>
+  <si>
+    <t>0.0673648</t>
+  </si>
+  <si>
+    <t>0.05840249999999991</t>
+  </si>
+  <si>
+    <t>0.07663850000000005</t>
+  </si>
+  <si>
+    <t>0.07088590000000017</t>
+  </si>
+  <si>
+    <t>0.09279559999999987</t>
+  </si>
+  <si>
+    <t>0.12332319999999997</t>
+  </si>
+  <si>
+    <t>0.06645020000000001</t>
+  </si>
+  <si>
+    <t>0.06412689999999999</t>
+  </si>
+  <si>
+    <t>0.1122399999999999</t>
+  </si>
+  <si>
+    <t>0.10154360000000029</t>
+  </si>
+  <si>
+    <t>0.051000000000000156</t>
+  </si>
+  <si>
+    <t>0.05711580000000005</t>
+  </si>
+  <si>
+    <t>0.05109579999999969</t>
+  </si>
+  <si>
+    <t>0.08566499999999966</t>
+  </si>
+  <si>
+    <t>0.06992419999999999</t>
+  </si>
+  <si>
+    <t>0.056592100000000034</t>
+  </si>
+  <si>
+    <t>0.06124090000000004</t>
+  </si>
+  <si>
+    <t>0.09012980000000015</t>
+  </si>
+  <si>
+    <t>0.049758699999999934</t>
+  </si>
+  <si>
+    <t>0.11119119999999993</t>
+  </si>
+  <si>
+    <t>0.09010290000000021</t>
+  </si>
+  <si>
+    <t>0.03761020000000004</t>
+  </si>
+  <si>
+    <t>0.06481029999999999</t>
+  </si>
+  <si>
+    <t>0.06404440000000022</t>
+  </si>
+  <si>
+    <t>0.06403200000000009</t>
+  </si>
+  <si>
+    <t>0.06823060000000014</t>
+  </si>
+  <si>
+    <t>0.06756859999999998</t>
+  </si>
+  <si>
+    <t>0.05586039999999981</t>
+  </si>
+  <si>
+    <t>0.037382899999999886</t>
+  </si>
+  <si>
+    <t>0.07314920000000003</t>
+  </si>
+  <si>
+    <t>0.06115450000000022</t>
+  </si>
+  <si>
+    <t>0.05668519999999999</t>
+  </si>
+  <si>
+    <t>0.07067920000000028</t>
+  </si>
+  <si>
+    <t>0.056261899999999976</t>
+  </si>
+  <si>
+    <t>0.07542310000000008</t>
+  </si>
+  <si>
+    <t>0.08730359999999981</t>
+  </si>
+  <si>
+    <t>0.043405499999999986</t>
+  </si>
+  <si>
+    <t>0.06409650000000022</t>
+  </si>
+  <si>
+    <t>0.04322729999999986</t>
+  </si>
+  <si>
+    <t>0.08311320000000011</t>
+  </si>
+  <si>
+    <t>0.06278580000000034</t>
+  </si>
+  <si>
+    <t>0.1329672999999998</t>
+  </si>
+  <si>
+    <t>0.16052929999999943</t>
+  </si>
+  <si>
+    <t>0.0565275999999999</t>
+  </si>
+  <si>
+    <t>0.07359510000000036</t>
+  </si>
+  <si>
+    <t>0.07280969999999964</t>
+  </si>
+  <si>
+    <t>0.04058000000000028</t>
+  </si>
+  <si>
+    <t>0.05463649999999998</t>
+  </si>
+  <si>
+    <t>0.09848829999999964</t>
+  </si>
+  <si>
+    <t>0.06425100000000006</t>
+  </si>
+  <si>
+    <t>0.09895880000000012</t>
+  </si>
+  <si>
+    <t>0.11673350000000005</t>
+  </si>
+  <si>
+    <t>0.10561379999999998</t>
+  </si>
+  <si>
+    <t>0.1065058000000001</t>
+  </si>
+  <si>
+    <t>0.06904789999999994</t>
+  </si>
+  <si>
+    <t>0.05616679999999996</t>
+  </si>
+  <si>
+    <t>0.0740535</t>
+  </si>
+  <si>
+    <t>0.04788429999999977</t>
+  </si>
+  <si>
+    <t>0.04568709999999987</t>
+  </si>
+  <si>
+    <t>0.07511489999999998</t>
+  </si>
+  <si>
+    <t>0.06593979999999977</t>
+  </si>
+  <si>
+    <t>0.03715920000000006</t>
+  </si>
+  <si>
+    <t>0.05516999999999994</t>
+  </si>
+  <si>
+    <t>0.05057679999999998</t>
+  </si>
+  <si>
+    <t>0.047016499999999795</t>
+  </si>
+  <si>
+    <t>0.17814090000000027</t>
+  </si>
+  <si>
+    <t>0.15792189999999984</t>
+  </si>
+  <si>
+    <t>0.06937620000000022</t>
+  </si>
+  <si>
+    <t>0.042297200000000146</t>
+  </si>
+  <si>
+    <t>0.09956739999999975</t>
+  </si>
+  <si>
+    <t>0.11541579999999962</t>
+  </si>
+  <si>
+    <t>0.06756000000000029</t>
+  </si>
+  <si>
+    <t>0.05776190000000003</t>
+  </si>
+  <si>
+    <t>0.05310349999999975</t>
+  </si>
+  <si>
+    <t>0.08462680000000011</t>
+  </si>
+  <si>
+    <t>0.059192299999999864</t>
+  </si>
+  <si>
+    <t>0.053405900000000006</t>
+  </si>
+  <si>
+    <t>0.046283400000000086</t>
+  </si>
+  <si>
+    <t>0.06928819999999991</t>
+  </si>
+  <si>
+    <t>0.08147040000000016</t>
+  </si>
+  <si>
+    <t>0.059631200000000106</t>
+  </si>
+  <si>
+    <t>0.09146989999999988</t>
+  </si>
+  <si>
+    <t>0.07396789999999998</t>
+  </si>
+  <si>
+    <t>0.08220729999999987</t>
+  </si>
+  <si>
+    <t>0.07179449999999932</t>
+  </si>
+  <si>
+    <t>0.08771009999999979</t>
+  </si>
+  <si>
+    <t>0.04789069999999995</t>
+  </si>
+  <si>
+    <t>0.07011460000000014</t>
+  </si>
+  <si>
+    <t>0.08646089999999962</t>
+  </si>
+  <si>
+    <t>0.08937659999999958</t>
+  </si>
+  <si>
+    <t>0.08858380000000032</t>
+  </si>
+  <si>
+    <t>0.07208479999999984</t>
+  </si>
+  <si>
+    <t>0.11677969999999949</t>
+  </si>
+  <si>
+    <t>0.09030629999999995</t>
+  </si>
+  <si>
+    <t>0.11037490000000005</t>
+  </si>
+  <si>
+    <t>0.08812409999999993</t>
+  </si>
+  <si>
+    <t>0.12432420000000022</t>
+  </si>
+  <si>
+    <t>0.10206230000000005</t>
+  </si>
+  <si>
+    <t>0.04819450000000014</t>
+  </si>
+  <si>
+    <t>0.060361200000000004</t>
+  </si>
+  <si>
+    <t>0.05236949999999996</t>
+  </si>
+  <si>
+    <t>0.05180489999999982</t>
+  </si>
+  <si>
+    <t>0.0638730999999999</t>
+  </si>
+  <si>
+    <t>0.09200720000000007</t>
+  </si>
+  <si>
+    <t>0.12182880000000007</t>
+  </si>
+  <si>
+    <t>0.0543982999999999</t>
+  </si>
+  <si>
+    <t>0.03760259999999982</t>
+  </si>
+  <si>
+    <t>0.03558259999999991</t>
+  </si>
+  <si>
+    <t>0.05356669999999997</t>
+  </si>
+  <si>
+    <t>0.06824450000000004</t>
+  </si>
+  <si>
+    <t>0.12603199999999992</t>
+  </si>
+  <si>
+    <t>0.09245540000000041</t>
+  </si>
+  <si>
+    <t>0.0846007000000002</t>
+  </si>
+  <si>
+    <t>0.09600980000000003</t>
+  </si>
+  <si>
+    <t>0.09706729999999997</t>
+  </si>
+  <si>
+    <t>0.09258679999999986</t>
+  </si>
+  <si>
+    <t>0.12912420000000013</t>
+  </si>
+  <si>
+    <t>0.05997709999999978</t>
+  </si>
+  <si>
+    <t>0.07756159999999968</t>
+  </si>
+  <si>
+    <t>0.05552760000000001</t>
+  </si>
+  <si>
+    <t>0.05094489999999974</t>
+  </si>
+  <si>
+    <t>0.07761720000000016</t>
+  </si>
+  <si>
+    <t>0.16568119999999986</t>
+  </si>
+  <si>
+    <t>0.08429679999999973</t>
+  </si>
+  <si>
+    <t>0.09237099999999998</t>
+  </si>
+  <si>
+    <t>0.04092869999999982</t>
+  </si>
+  <si>
+    <t>0.09236299999999975</t>
+  </si>
+  <si>
+    <t>0.07104880000000025</t>
+  </si>
+  <si>
+    <t>0.07970450000000007</t>
+  </si>
+  <si>
+    <t>0.05125029999999997</t>
+  </si>
+  <si>
+    <t>0.11606399999999972</t>
+  </si>
+  <si>
+    <t>0.06038779999999999</t>
+  </si>
+  <si>
+    <t>0.04705629999999994</t>
+  </si>
+  <si>
+    <t>0.06789699999999987</t>
+  </si>
+  <si>
+    <t>0.05167730000000015</t>
+  </si>
+  <si>
+    <t>0.03624589999999994</t>
+  </si>
+  <si>
+    <t>0.09788080000000043</t>
+  </si>
+  <si>
+    <t>0.07818619999999932</t>
+  </si>
+  <si>
+    <t>0.05090370000000011</t>
+  </si>
+  <si>
+    <t>0.06583360000000038</t>
+  </si>
+  <si>
+    <t>0.055660599999999505</t>
+  </si>
+  <si>
+    <t>0.10393950000000007</t>
+  </si>
+  <si>
+    <t>0.0366244</t>
+  </si>
+  <si>
+    <t>0.11632430000000049</t>
+  </si>
+  <si>
+    <t>0.061166000000000054</t>
+  </si>
+  <si>
+    <t>0.08661940000000001</t>
+  </si>
+  <si>
+    <t>0.051561300000000365</t>
+  </si>
+  <si>
+    <t>0.05916829999999962</t>
+  </si>
+  <si>
+    <t>0.10248879999999971</t>
+  </si>
+  <si>
+    <t>0.09607389999999993</t>
+  </si>
+  <si>
+    <t>0.07762249999999993</t>
+  </si>
+  <si>
+    <t>0.13888250000000002</t>
+  </si>
+  <si>
+    <t>0.06230979999999997</t>
+  </si>
+  <si>
+    <t>0.09700140000000013</t>
+  </si>
+  <si>
+    <t>0.10182420000000003</t>
+  </si>
+  <si>
+    <t>0.05931480000000011</t>
+  </si>
+  <si>
+    <t>0.059782699999999966</t>
+  </si>
+  <si>
+    <t>0.04333710000000002</t>
+  </si>
+  <si>
+    <t>0.0551877999999999</t>
+  </si>
+  <si>
+    <t>0.06807240000000014</t>
+  </si>
+  <si>
+    <t>0.05770059999999999</t>
+  </si>
+  <si>
+    <t>0.051713200000000015</t>
+  </si>
+  <si>
+    <t>0.0848331</t>
+  </si>
+  <si>
+    <t>0.051711300000000016</t>
+  </si>
+  <si>
+    <t>0.06552209999999992</t>
+  </si>
+  <si>
+    <t>0.0514682999999998</t>
+  </si>
+  <si>
+    <t>0.0770938000000001</t>
+  </si>
+  <si>
+    <t>0.07332170000000016</t>
+  </si>
+  <si>
+    <t>0.07460119999999959</t>
+  </si>
+  <si>
+    <t>0.058021600000000007</t>
+  </si>
+  <si>
+    <t>0.045863499999999835</t>
+  </si>
+  <si>
+    <t>0.06379029999999997</t>
+  </si>
+  <si>
+    <t>0.051473300000000055</t>
+  </si>
+  <si>
+    <t>0.05116019999999999</t>
+  </si>
+  <si>
+    <t>0.07206349999999961</t>
+  </si>
+  <si>
+    <t>0.04693680000000011</t>
+  </si>
+  <si>
+    <t>0.08555879999999982</t>
+  </si>
+  <si>
+    <t>0.032500500000000265</t>
+  </si>
+  <si>
+    <t>0.051415599999999895</t>
+  </si>
+  <si>
+    <t>0.13312959999999974</t>
+  </si>
+  <si>
+    <t>0.05195210000000028</t>
+  </si>
+  <si>
+    <t>0.10531129999999989</t>
+  </si>
+  <si>
+    <t>0.09665329999999983</t>
+  </si>
+  <si>
+    <t>0.13934479999999994</t>
+  </si>
+  <si>
+    <t>0.0640780000000003</t>
+  </si>
+  <si>
+    <t>0.05579730000000005</t>
+  </si>
+  <si>
+    <t>0.09279750000000009</t>
+  </si>
+  <si>
+    <t>0.07692420000000011</t>
+  </si>
+  <si>
+    <t>0.0605658</t>
+  </si>
+  <si>
+    <t>0.11978250000000035</t>
+  </si>
+  <si>
+    <t>0.07754969999999961</t>
+  </si>
+  <si>
+    <t>0.10493479999999966</t>
+  </si>
+  <si>
+    <t>0.0651382000000007</t>
+  </si>
+  <si>
+    <t>0.07262710000000006</t>
+  </si>
+  <si>
+    <t>0.04819209999999963</t>
+  </si>
+  <si>
+    <t>0.0566747000000003</t>
+  </si>
+  <si>
+    <t>0.03369290000000014</t>
+  </si>
+  <si>
+    <t>0.06418940000000006</t>
+  </si>
+  <si>
+    <t>0.0727373999999994</t>
+  </si>
+  <si>
+    <t>0.08575750000000015</t>
+  </si>
+  <si>
+    <t>0.08816800000000002</t>
+  </si>
+  <si>
+    <t>0.11986879999999989</t>
+  </si>
+  <si>
+    <t>0.057744100000000076</t>
+  </si>
+  <si>
+    <t>0.08520240000000001</t>
+  </si>
+  <si>
+    <t>0.07649060000000008</t>
+  </si>
+  <si>
+    <t>0.1058363</t>
+  </si>
+  <si>
+    <t>0.05196260000000019</t>
+  </si>
+  <si>
+    <t>0.08645269999999994</t>
+  </si>
+  <si>
+    <t>0.09705059999999976</t>
+  </si>
+  <si>
+    <t>0.08319749999999981</t>
+  </si>
+  <si>
+    <t>0.09888589999999997</t>
+  </si>
+  <si>
+    <t>0.05490679999999992</t>
+  </si>
+  <si>
+    <t>0.07453330000000014</t>
+  </si>
+  <si>
+    <t>0.10533970000000004</t>
+  </si>
+  <si>
+    <t>0.12268940000000006</t>
+  </si>
+  <si>
+    <t>0.04698789999999997</t>
+  </si>
+  <si>
+    <t>0.05495580000000011</t>
+  </si>
+  <si>
+    <t>0.07752770000000009</t>
+  </si>
+  <si>
+    <t>0.1440193999999999</t>
+  </si>
+  <si>
+    <t>0.0649978</t>
+  </si>
+  <si>
+    <t>0.05049089999999978</t>
+  </si>
+  <si>
+    <t>0.08637769999999989</t>
+  </si>
+  <si>
+    <t>0.1221281000000003</t>
+  </si>
+  <si>
+    <t>0.1153651</t>
+  </si>
+  <si>
+    <t>0.07542819999999972</t>
+  </si>
+  <si>
+    <t>0.0821105000000002</t>
+  </si>
+  <si>
+    <t>0.06411120000000015</t>
+  </si>
+  <si>
+    <t>0.10745190000000004</t>
+  </si>
+  <si>
+    <t>0.07101589999999991</t>
+  </si>
+  <si>
+    <t>0.06091550000000012</t>
+  </si>
+  <si>
+    <t>0.06784799999999969</t>
+  </si>
+  <si>
+    <t>0.09063130000000008</t>
+  </si>
+  <si>
+    <t>0.05275719999999984</t>
+  </si>
+  <si>
+    <t>0.15028050000000004</t>
+  </si>
+  <si>
+    <t>0.14496520000000057</t>
+  </si>
+  <si>
+    <t>0.07709420000000033</t>
+  </si>
+  <si>
+    <t>0.07419270000000022</t>
+  </si>
+  <si>
+    <t>0.07851189999999963</t>
+  </si>
+  <si>
+    <t>0.06586400000000037</t>
+  </si>
+  <si>
+    <t>0.1260418999999997</t>
+  </si>
+  <si>
+    <t>0.0856520000000005</t>
+  </si>
+  <si>
+    <t>0.08357369999999964</t>
+  </si>
+  <si>
+    <t>0.16249040000000026</t>
+  </si>
+  <si>
+    <t>0.09543120000000016</t>
+  </si>
+  <si>
+    <t>0.09012620000000027</t>
+  </si>
+  <si>
+    <t>0.09535230000000006</t>
+  </si>
+  <si>
+    <t>0.10713930000000005</t>
+  </si>
+  <si>
+    <t>0.08213940000000086</t>
+  </si>
+  <si>
+    <t>0.07167929999999956</t>
+  </si>
+  <si>
+    <t>0.058195899999999856</t>
+  </si>
+  <si>
+    <t>0.09277589999999991</t>
+  </si>
+  <si>
+    <t>0.14519170000000003</t>
+  </si>
+  <si>
+    <t>0.09452499999999997</t>
+  </si>
+  <si>
+    <t>0.15271380000000012</t>
+  </si>
+  <si>
+    <t>0.13350379999999995</t>
+  </si>
+  <si>
+    <t>0.05491659999999987</t>
+  </si>
+  <si>
+    <t>0.08689619999999998</t>
+  </si>
+  <si>
+    <t>0.07470250000000034</t>
+  </si>
+  <si>
+    <t>0.10951030000000017</t>
+  </si>
+  <si>
+    <t>0.11007379999999989</t>
+  </si>
+  <si>
+    <t>0.0706806000000002</t>
+  </si>
+  <si>
+    <t>0.03664740000000011</t>
+  </si>
+  <si>
+    <t>0.09547810000000023</t>
+  </si>
+  <si>
+    <t>0.07152709999999995</t>
+  </si>
+  <si>
+    <t>0.10075570000000011</t>
+  </si>
+  <si>
+    <t>0.07683829999999992</t>
+  </si>
+  <si>
+    <t>0.09972739999999991</t>
+  </si>
+  <si>
+    <t>0.09178109999999995</t>
+  </si>
+  <si>
+    <t>0.08805810000000003</t>
+  </si>
+  <si>
+    <t>0.07573210000000019</t>
+  </si>
+  <si>
+    <t>0.102881</t>
+  </si>
+  <si>
+    <t>0.08019229999999977</t>
+  </si>
+  <si>
+    <t>0.09036529999999976</t>
+  </si>
+  <si>
+    <t>0.06952919999999985</t>
+  </si>
+  <si>
+    <t>0.09302600000000005</t>
+  </si>
+  <si>
+    <t>0.052979999999999805</t>
+  </si>
+  <si>
+    <t>0.028349899999999817</t>
+  </si>
+  <si>
+    <t>0.04311279999999984</t>
+  </si>
+  <si>
+    <t>0.04241230000000007</t>
+  </si>
+  <si>
+    <t>0.09929919999999992</t>
+  </si>
+  <si>
+    <t>0.1103516</t>
+  </si>
+  <si>
+    <t>0.06264719999999979</t>
+  </si>
+  <si>
+    <t>0.08977979999999963</t>
+  </si>
+  <si>
+    <t>0.04311129999999963</t>
+  </si>
+  <si>
+    <t>0.09954959999999957</t>
+  </si>
+  <si>
+    <t>0.05478370000000066</t>
+  </si>
+  <si>
+    <t>0.09427629999999976</t>
+  </si>
+  <si>
+    <t>0.09570349999999994</t>
+  </si>
+  <si>
+    <t>0.0850344999999999</t>
+  </si>
+  <si>
+    <t>0.16712879999999952</t>
+  </si>
+  <si>
+    <t>0.06097459999999977</t>
+  </si>
+  <si>
+    <t>0.0706528000000004</t>
+  </si>
+  <si>
+    <t>0.12554449999999928</t>
+  </si>
+  <si>
+    <t>0.15210459999999948</t>
+  </si>
+  <si>
+    <t>0.08852769999999932</t>
+  </si>
+  <si>
+    <t>0.10477000000000025</t>
+  </si>
+  <si>
+    <t>0.08182050000000007</t>
+  </si>
+  <si>
+    <t>0.04756429999999945</t>
+  </si>
+  <si>
+    <t>0.08343230000000013</t>
+  </si>
+  <si>
+    <t>0.07919549999999997</t>
+  </si>
+  <si>
+    <t>0.15130240000000006</t>
+  </si>
+  <si>
+    <t>0.02818019999999999</t>
+  </si>
+  <si>
+    <t>0.12347900000000012</t>
+  </si>
+  <si>
+    <t>0.06669639999999988</t>
+  </si>
+  <si>
+    <t>0.07195339999999995</t>
+  </si>
+  <si>
+    <t>0.08319030000000005</t>
+  </si>
+  <si>
+    <t>0.07386199999999987</t>
+  </si>
+  <si>
+    <t>0.12452160000000001</t>
+  </si>
+  <si>
+    <t>0.07465100000000024</t>
+  </si>
+  <si>
+    <t>0.06922569999999961</t>
+  </si>
+  <si>
+    <t>0.07295019999999974</t>
+  </si>
+  <si>
+    <t>0.06432940000000009</t>
+  </si>
+  <si>
+    <t>0.08528219999999997</t>
+  </si>
+  <si>
+    <t>0.07120939999999987</t>
+  </si>
+  <si>
+    <t>0.07411939999999984</t>
+  </si>
+  <si>
+    <t>0.11750790000000011</t>
+  </si>
+  <si>
+    <t>0.1331894</t>
+  </si>
+  <si>
+    <t>0.05665949999999986</t>
+  </si>
+  <si>
+    <t>0.07578660000000026</t>
+  </si>
+  <si>
+    <t>0.0597243999999999</t>
+  </si>
+  <si>
+    <t>0.08974989999999972</t>
+  </si>
+  <si>
+    <t>0.08708170000000015</t>
+  </si>
+  <si>
+    <t>0.0695108999999996</t>
+  </si>
+  <si>
+    <t>0.12859639999999972</t>
+  </si>
+  <si>
+    <t>0.05454870000000023</t>
+  </si>
+  <si>
+    <t>0.09659649999999997</t>
+  </si>
+  <si>
+    <t>0.03719930000000016</t>
+  </si>
+  <si>
+    <t>0.07040510000000033</t>
+  </si>
+  <si>
+    <t>0.0682697000000001</t>
+  </si>
+  <si>
+    <t>0.10147729999999999</t>
+  </si>
+  <si>
+    <t>0.055143500000000234</t>
+  </si>
+  <si>
+    <t>0.0633231000000003</t>
+  </si>
+  <si>
+    <t>0.1357678</t>
+  </si>
+  <si>
+    <t>0.09046440000000011</t>
+  </si>
+  <si>
+    <t>0.04687280000000005</t>
+  </si>
+  <si>
+    <t>0.08269400000000005</t>
+  </si>
+  <si>
+    <t>0.07140289999999982</t>
+  </si>
+  <si>
+    <t>0.07842540000000042</t>
+  </si>
+  <si>
+    <t>0.03935230000000001</t>
+  </si>
+  <si>
+    <t>0.1391239999999998</t>
+  </si>
+  <si>
+    <t>0.08265939999999983</t>
+  </si>
+  <si>
+    <t>0.06000950000000049</t>
+  </si>
+  <si>
+    <t>0.0944566</t>
+  </si>
+  <si>
+    <t>0.06312120000000032</t>
+  </si>
+  <si>
+    <t>0.04932639999999999</t>
+  </si>
+  <si>
+    <t>0.06943319999999975</t>
+  </si>
+  <si>
+    <t>0.07015789999999988</t>
+  </si>
+  <si>
+    <t>0.0699152999999999</t>
+  </si>
+  <si>
+    <t>0.09072950000000013</t>
+  </si>
+  <si>
+    <t>0.0617821999999999</t>
+  </si>
+  <si>
+    <t>0.055462800000000145</t>
+  </si>
+  <si>
+    <t>0.09376610000000007</t>
+  </si>
+  <si>
+    <t>0.08269740000000003</t>
+  </si>
+  <si>
+    <t>0.06393810000000011</t>
+  </si>
+  <si>
+    <t>0.12215769999999981</t>
+  </si>
+  <si>
+    <t>0.038959600000000094</t>
+  </si>
+  <si>
+    <t>0.06234390000000012</t>
+  </si>
+  <si>
+    <t>0.07590790000000003</t>
+  </si>
+  <si>
+    <t>0.06341789999999992</t>
+  </si>
+  <si>
+    <t>0.05205650000000017</t>
+  </si>
+  <si>
+    <t>0.08198169999999982</t>
+  </si>
+  <si>
+    <t>0.09880960000000005</t>
+  </si>
+  <si>
+    <t>0.22401199999999966</t>
+  </si>
+  <si>
+    <t>0.057030899999999995</t>
+  </si>
+  <si>
+    <t>0.1560937</t>
+  </si>
+  <si>
+    <t>0.07525110000000002</t>
+  </si>
+  <si>
+    <t>0.0561389000000001</t>
+  </si>
+  <si>
+    <t>0.08555720000000022</t>
+  </si>
+  <si>
+    <t>0.13083509999999965</t>
+  </si>
+  <si>
+    <t>0.0832212000000001</t>
+  </si>
+  <si>
+    <t>0.0722798</t>
+  </si>
+  <si>
+    <t>0.11230470000000015</t>
+  </si>
+  <si>
+    <t>0.05610940000000042</t>
+  </si>
+  <si>
+    <t>0.0828281999999998</t>
+  </si>
+  <si>
+    <t>0.06391239999999998</t>
+  </si>
+  <si>
+    <t>0.05613050000000008</t>
+  </si>
+  <si>
+    <t>0.09223810000000032</t>
+  </si>
+  <si>
+    <t>0.0372018999999999</t>
+  </si>
+  <si>
+    <t>0.10450199999999965</t>
+  </si>
+  <si>
+    <t>0.11864469999999994</t>
+  </si>
+  <si>
+    <t>0.08103779999999983</t>
+  </si>
+  <si>
+    <t>0.12696980000000035</t>
+  </si>
+  <si>
+    <t>0.0462138999999997</t>
+  </si>
+  <si>
+    <t>0.06138810000000028</t>
+  </si>
+  <si>
+    <t>0.04680440000000008</t>
+  </si>
+  <si>
+    <t>0.06687240000000028</t>
+  </si>
+  <si>
+    <t>0.05238250000000022</t>
+  </si>
+  <si>
+    <t>0.12064170000000018</t>
+  </si>
+  <si>
+    <t>0.08502860000000023</t>
+  </si>
+  <si>
+    <t>0.1528672000000002</t>
+  </si>
+  <si>
+    <t>0.06295170000000017</t>
+  </si>
+  <si>
+    <t>0.09597229999999968</t>
+  </si>
+  <si>
+    <t>0.04956750000000021</t>
+  </si>
+  <si>
+    <t>0.07442360000000026</t>
+  </si>
+  <si>
+    <t>0.07032619999999934</t>
+  </si>
+  <si>
+    <t>0.05953240000000015</t>
+  </si>
+  <si>
+    <t>0.0549489000000003</t>
+  </si>
+  <si>
+    <t>0.05420280000000055</t>
+  </si>
+  <si>
+    <t>0.10127349999999957</t>
   </si>
 </sst>
 </file>
@@ -712,10 +1852,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D121"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E341" sqref="E341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,7 +1884,7 @@
         <v>200</v>
       </c>
       <c r="B2">
-        <v>458</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -757,7 +1898,7 @@
         <v>200</v>
       </c>
       <c r="B3">
-        <v>481</v>
+        <v>328</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -771,7 +1912,7 @@
         <v>200</v>
       </c>
       <c r="B4">
-        <v>318</v>
+        <v>198</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -785,7 +1926,7 @@
         <v>200</v>
       </c>
       <c r="B5">
-        <v>213</v>
+        <v>348</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -799,7 +1940,7 @@
         <v>200</v>
       </c>
       <c r="B6">
-        <v>375</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -808,18 +1949,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B7">
-        <v>321</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -827,69 +1968,69 @@
         <v>200</v>
       </c>
       <c r="B8">
-        <v>541</v>
+        <v>437</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B9">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>400</v>
       </c>
       <c r="B10">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>400</v>
       </c>
       <c r="B11">
-        <v>445</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B12">
-        <v>652</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -897,27 +2038,27 @@
         <v>200</v>
       </c>
       <c r="B13">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>400</v>
       </c>
       <c r="B14">
-        <v>392</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -925,13 +2066,13 @@
         <v>200</v>
       </c>
       <c r="B15">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -939,13 +2080,13 @@
         <v>200</v>
       </c>
       <c r="B16">
-        <v>389</v>
+        <v>470</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -953,13 +2094,13 @@
         <v>200</v>
       </c>
       <c r="B17">
-        <v>229</v>
+        <v>339</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -967,41 +2108,41 @@
         <v>200</v>
       </c>
       <c r="B18">
-        <v>276</v>
+        <v>475</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B19">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B20">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1009,41 +2150,41 @@
         <v>200</v>
       </c>
       <c r="B21">
-        <v>333</v>
+        <v>543</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B22">
-        <v>900</v>
+        <v>459</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
       <c r="D22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>400</v>
       </c>
       <c r="B23">
-        <v>442</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1051,97 +2192,97 @@
         <v>200</v>
       </c>
       <c r="B24">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>400</v>
       </c>
       <c r="B25">
-        <v>219</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
       <c r="D25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>400</v>
       </c>
       <c r="B26">
-        <v>650</v>
+        <v>231</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
       </c>
       <c r="D26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>400</v>
       </c>
       <c r="B27">
-        <v>390</v>
+        <v>270</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B28">
-        <v>533</v>
+        <v>296</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
       </c>
       <c r="D28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>400</v>
       </c>
       <c r="B29">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
       </c>
       <c r="D29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B30">
-        <v>486</v>
+        <v>290</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1149,69 +2290,69 @@
         <v>200</v>
       </c>
       <c r="B31">
-        <v>415</v>
+        <v>535</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
       </c>
       <c r="D31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>400</v>
       </c>
       <c r="B32">
-        <v>578</v>
+        <v>338</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
       </c>
       <c r="D32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B33">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
       </c>
       <c r="D33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B34">
-        <v>457</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
       </c>
       <c r="D34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>400</v>
       </c>
       <c r="B35">
-        <v>477</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1219,27 +2360,27 @@
         <v>200</v>
       </c>
       <c r="B36">
-        <v>225</v>
+        <v>296</v>
       </c>
       <c r="C36" t="s">
         <v>38</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B37">
-        <v>442</v>
+        <v>260</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1247,13 +2388,13 @@
         <v>200</v>
       </c>
       <c r="B38">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1261,41 +2402,41 @@
         <v>200</v>
       </c>
       <c r="B39">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
       </c>
       <c r="D39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>400</v>
       </c>
       <c r="B40">
-        <v>536</v>
+        <v>166</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B41">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="C41" t="s">
         <v>43</v>
       </c>
       <c r="D41">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1303,200 +2444,200 @@
         <v>200</v>
       </c>
       <c r="B42">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
       </c>
       <c r="D42">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B43">
-        <v>227</v>
+        <v>477</v>
       </c>
       <c r="C43" t="s">
         <v>45</v>
       </c>
       <c r="D43">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B44">
-        <v>232</v>
+        <v>97</v>
       </c>
       <c r="C44" t="s">
         <v>46</v>
       </c>
       <c r="D44">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>400</v>
       </c>
       <c r="B45">
-        <v>545</v>
+        <v>257</v>
       </c>
       <c r="C45" t="s">
         <v>47</v>
       </c>
       <c r="D45">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>400</v>
       </c>
       <c r="B46">
-        <v>330</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
         <v>48</v>
       </c>
       <c r="D46">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>400</v>
       </c>
       <c r="B47">
-        <v>603</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B48">
-        <v>342</v>
+        <v>425</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B49">
-        <v>360</v>
+        <v>265</v>
       </c>
       <c r="C49" t="s">
         <v>51</v>
       </c>
       <c r="D49">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B50">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="C50" t="s">
         <v>52</v>
       </c>
       <c r="D50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>400</v>
       </c>
       <c r="B51">
-        <v>1519</v>
+        <v>308</v>
       </c>
       <c r="C51" t="s">
         <v>53</v>
       </c>
       <c r="D51">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>400</v>
       </c>
       <c r="B52">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="C52" t="s">
         <v>54</v>
       </c>
       <c r="D52">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B53">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
         <v>55</v>
       </c>
       <c r="D53">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B54">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="C54" t="s">
         <v>56</v>
       </c>
       <c r="D54">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B55">
-        <v>224</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
         <v>57</v>
       </c>
       <c r="D55">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B56">
         <v>216</v>
@@ -1505,77 +2646,77 @@
         <v>58</v>
       </c>
       <c r="D56">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>400</v>
       </c>
       <c r="B57">
-        <v>1727</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>59</v>
       </c>
       <c r="D57">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B58">
-        <v>516</v>
+        <v>339</v>
       </c>
       <c r="C58" t="s">
         <v>60</v>
       </c>
       <c r="D58">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B59">
-        <v>313</v>
+        <v>373</v>
       </c>
       <c r="C59" t="s">
         <v>61</v>
       </c>
       <c r="D59">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B60">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="C60" t="s">
         <v>62</v>
       </c>
       <c r="D60">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B61">
-        <v>378</v>
+        <v>247</v>
       </c>
       <c r="C61" t="s">
         <v>63</v>
       </c>
       <c r="D61">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1583,843 +2724,6169 @@
         <v>200</v>
       </c>
       <c r="B62">
-        <v>165</v>
+        <v>435</v>
       </c>
       <c r="C62" t="s">
         <v>64</v>
       </c>
       <c r="D62">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>400</v>
       </c>
       <c r="B63">
-        <v>922</v>
+        <v>205</v>
       </c>
       <c r="C63" t="s">
         <v>65</v>
       </c>
       <c r="D63">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B64">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="C64" t="s">
         <v>66</v>
       </c>
       <c r="D64">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B65">
-        <v>512</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
         <v>67</v>
       </c>
       <c r="D65">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>400</v>
       </c>
       <c r="B66">
-        <v>311</v>
+        <v>243</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
       </c>
       <c r="D66">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B67">
-        <v>322</v>
+        <v>459</v>
       </c>
       <c r="C67" t="s">
         <v>69</v>
       </c>
       <c r="D67">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>400</v>
       </c>
       <c r="B68">
-        <v>499</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
         <v>70</v>
       </c>
       <c r="D68">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>400</v>
       </c>
       <c r="B69">
-        <v>439</v>
+        <v>388</v>
       </c>
       <c r="C69" t="s">
         <v>71</v>
       </c>
       <c r="D69">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>400</v>
       </c>
       <c r="B70">
-        <v>564</v>
+        <v>218</v>
       </c>
       <c r="C70" t="s">
         <v>72</v>
       </c>
       <c r="D70">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>400</v>
       </c>
       <c r="B71">
-        <v>415</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
         <v>73</v>
       </c>
       <c r="D71">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>400</v>
       </c>
       <c r="B72">
-        <v>304</v>
+        <v>33</v>
       </c>
       <c r="C72" t="s">
         <v>74</v>
       </c>
       <c r="D72">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B73">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C73" t="s">
         <v>75</v>
       </c>
       <c r="D73">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>400</v>
       </c>
       <c r="B74">
-        <v>556</v>
+        <v>72</v>
       </c>
       <c r="C74" t="s">
         <v>76</v>
       </c>
       <c r="D74">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>400</v>
       </c>
       <c r="B75">
-        <v>270</v>
+        <v>102</v>
       </c>
       <c r="C75" t="s">
         <v>77</v>
       </c>
       <c r="D75">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>400</v>
       </c>
       <c r="B76">
-        <v>591</v>
+        <v>323</v>
       </c>
       <c r="C76" t="s">
         <v>78</v>
       </c>
       <c r="D76">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B77">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="C77" t="s">
         <v>79</v>
       </c>
       <c r="D77">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B78">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="C78" t="s">
         <v>80</v>
       </c>
       <c r="D78">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>400</v>
       </c>
       <c r="B79">
-        <v>784</v>
+        <v>402</v>
       </c>
       <c r="C79" t="s">
         <v>81</v>
       </c>
       <c r="D79">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B80">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="C80" t="s">
         <v>82</v>
       </c>
       <c r="D80">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B81">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="C81" t="s">
         <v>83</v>
       </c>
       <c r="D81">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>400</v>
       </c>
       <c r="B82">
-        <v>354</v>
+        <v>44</v>
       </c>
       <c r="C82" t="s">
         <v>84</v>
       </c>
       <c r="D82">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>400</v>
       </c>
       <c r="B83">
-        <v>263</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
         <v>85</v>
       </c>
       <c r="D83">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B84">
-        <v>271</v>
+        <v>539</v>
       </c>
       <c r="C84" t="s">
         <v>86</v>
       </c>
       <c r="D84">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>400</v>
       </c>
       <c r="B85">
-        <v>287</v>
+        <v>22</v>
       </c>
       <c r="C85" t="s">
         <v>87</v>
       </c>
       <c r="D85">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B86">
-        <v>407</v>
+        <v>199</v>
       </c>
       <c r="C86" t="s">
         <v>88</v>
       </c>
       <c r="D86">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>400</v>
       </c>
       <c r="B87">
-        <v>453</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>89</v>
       </c>
       <c r="D87">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>400</v>
       </c>
       <c r="B88">
-        <v>453</v>
+        <v>85</v>
       </c>
       <c r="C88" t="s">
         <v>90</v>
       </c>
       <c r="D88">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>400</v>
       </c>
       <c r="B89">
-        <v>306</v>
+        <v>129</v>
       </c>
       <c r="C89" t="s">
         <v>91</v>
       </c>
       <c r="D89">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B90">
-        <v>287</v>
+        <v>194</v>
       </c>
       <c r="C90" t="s">
         <v>92</v>
       </c>
       <c r="D90">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>400</v>
       </c>
       <c r="B91">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C91" t="s">
         <v>93</v>
       </c>
       <c r="D91">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B92">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="C92" t="s">
         <v>94</v>
       </c>
       <c r="D92">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>400</v>
       </c>
       <c r="B93">
-        <v>515</v>
+        <v>135</v>
       </c>
       <c r="C93" t="s">
         <v>95</v>
       </c>
       <c r="D93">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>400</v>
       </c>
       <c r="B94">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c r="C94" t="s">
         <v>96</v>
       </c>
       <c r="D94">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>400</v>
       </c>
       <c r="B95">
-        <v>364</v>
+        <v>204</v>
       </c>
       <c r="C95" t="s">
         <v>97</v>
       </c>
       <c r="D95">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B96">
-        <v>230</v>
+        <v>125</v>
       </c>
       <c r="C96" t="s">
         <v>98</v>
       </c>
       <c r="D96">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>400</v>
       </c>
       <c r="B97">
-        <v>229</v>
+        <v>357</v>
       </c>
       <c r="C97" t="s">
         <v>99</v>
       </c>
       <c r="D97">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>400</v>
       </c>
       <c r="B98">
-        <v>307</v>
+        <v>66</v>
       </c>
       <c r="C98" t="s">
         <v>100</v>
       </c>
       <c r="D98">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>400</v>
       </c>
       <c r="B99">
-        <v>427</v>
+        <v>42</v>
       </c>
       <c r="C99" t="s">
         <v>101</v>
       </c>
       <c r="D99">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B100">
-        <v>279</v>
+        <v>178</v>
       </c>
       <c r="C100" t="s">
         <v>102</v>
       </c>
       <c r="D100">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>400</v>
       </c>
       <c r="B101">
-        <v>440</v>
+        <v>111</v>
       </c>
       <c r="C101" t="s">
         <v>103</v>
       </c>
       <c r="D101">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>400</v>
       </c>
       <c r="B102">
-        <v>494</v>
+        <v>42</v>
       </c>
       <c r="C102" t="s">
         <v>104</v>
       </c>
       <c r="D102">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B103">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="C103" t="s">
         <v>105</v>
       </c>
       <c r="D103">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>400</v>
       </c>
       <c r="B104">
-        <v>428</v>
+        <v>162</v>
       </c>
       <c r="C104" t="s">
         <v>106</v>
       </c>
       <c r="D104">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>400</v>
       </c>
       <c r="B105">
-        <v>1713</v>
+        <v>324</v>
       </c>
       <c r="C105" t="s">
         <v>107</v>
       </c>
       <c r="D105">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>400</v>
       </c>
       <c r="B106">
-        <v>448</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
         <v>108</v>
       </c>
       <c r="D106">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>400</v>
       </c>
       <c r="B107">
-        <v>455</v>
+        <v>167</v>
       </c>
       <c r="C107" t="s">
         <v>109</v>
       </c>
       <c r="D107">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B108">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C108" t="s">
         <v>110</v>
       </c>
       <c r="D108">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>400</v>
       </c>
       <c r="B109">
-        <v>1558</v>
+        <v>37</v>
       </c>
       <c r="C109" t="s">
         <v>111</v>
       </c>
       <c r="D109">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>400</v>
       </c>
       <c r="B110">
-        <v>334</v>
+        <v>3</v>
       </c>
       <c r="C110" t="s">
         <v>112</v>
       </c>
       <c r="D110">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>400</v>
       </c>
       <c r="B111">
-        <v>456</v>
+        <v>85</v>
       </c>
       <c r="C111" t="s">
         <v>113</v>
       </c>
       <c r="D111">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B112">
-        <v>469</v>
+        <v>226</v>
       </c>
       <c r="C112" t="s">
         <v>114</v>
       </c>
       <c r="D112">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B113">
-        <v>259</v>
+        <v>59</v>
       </c>
       <c r="C113" t="s">
         <v>115</v>
       </c>
       <c r="D113">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>400</v>
       </c>
       <c r="B114">
-        <v>349</v>
+        <v>204</v>
       </c>
       <c r="C114" t="s">
         <v>116</v>
       </c>
       <c r="D114">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B115">
-        <v>282</v>
+        <v>394</v>
       </c>
       <c r="C115" t="s">
         <v>117</v>
       </c>
       <c r="D115">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>400</v>
       </c>
       <c r="B116">
-        <v>1585</v>
+        <v>446</v>
       </c>
       <c r="C116" t="s">
         <v>118</v>
       </c>
       <c r="D116">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B117">
-        <v>399</v>
+        <v>292</v>
       </c>
       <c r="C117" t="s">
         <v>119</v>
       </c>
       <c r="D117">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>400</v>
       </c>
       <c r="B118">
-        <v>344</v>
+        <v>36</v>
       </c>
       <c r="C118" t="s">
         <v>120</v>
       </c>
       <c r="D118">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>400</v>
       </c>
       <c r="B119">
-        <v>524</v>
+        <v>86</v>
       </c>
       <c r="C119" t="s">
         <v>121</v>
       </c>
       <c r="D119">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>400</v>
       </c>
       <c r="B120">
-        <v>411</v>
+        <v>278</v>
       </c>
       <c r="C120" t="s">
         <v>122</v>
       </c>
       <c r="D120">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>400</v>
       </c>
       <c r="B121">
-        <v>471</v>
+        <v>34</v>
       </c>
       <c r="C121" t="s">
         <v>123</v>
       </c>
       <c r="D121">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>400</v>
+      </c>
+      <c r="B122">
+        <v>78</v>
+      </c>
+      <c r="C122" t="s">
+        <v>124</v>
+      </c>
+      <c r="D122">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>200</v>
+      </c>
+      <c r="B123">
+        <v>220</v>
+      </c>
+      <c r="C123" t="s">
+        <v>125</v>
+      </c>
+      <c r="D123">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>400</v>
+      </c>
+      <c r="B124">
+        <v>17</v>
+      </c>
+      <c r="C124" t="s">
+        <v>126</v>
+      </c>
+      <c r="D124">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>400</v>
+      </c>
+      <c r="B125">
+        <v>239</v>
+      </c>
+      <c r="C125" t="s">
+        <v>127</v>
+      </c>
+      <c r="D125">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>400</v>
+      </c>
+      <c r="B126">
+        <v>112</v>
+      </c>
+      <c r="C126" t="s">
+        <v>128</v>
+      </c>
+      <c r="D126">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>400</v>
+      </c>
+      <c r="B127">
+        <v>39</v>
+      </c>
+      <c r="C127" t="s">
+        <v>129</v>
+      </c>
+      <c r="D127">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>400</v>
+      </c>
+      <c r="B128">
+        <v>408</v>
+      </c>
+      <c r="C128" t="s">
+        <v>130</v>
+      </c>
+      <c r="D128">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>400</v>
+      </c>
+      <c r="B129">
+        <v>179</v>
+      </c>
+      <c r="C129" t="s">
+        <v>131</v>
+      </c>
+      <c r="D129">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>200</v>
+      </c>
+      <c r="B130">
+        <v>214</v>
+      </c>
+      <c r="C130" t="s">
+        <v>132</v>
+      </c>
+      <c r="D130">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>400</v>
+      </c>
+      <c r="B131">
+        <v>53</v>
+      </c>
+      <c r="C131" t="s">
+        <v>133</v>
+      </c>
+      <c r="D131">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>400</v>
+      </c>
+      <c r="B132">
+        <v>142</v>
+      </c>
+      <c r="C132" t="s">
+        <v>134</v>
+      </c>
+      <c r="D132">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>200</v>
+      </c>
+      <c r="B133">
+        <v>202</v>
+      </c>
+      <c r="C133" t="s">
+        <v>135</v>
+      </c>
+      <c r="D133">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>400</v>
+      </c>
+      <c r="B134">
+        <v>266</v>
+      </c>
+      <c r="C134" t="s">
+        <v>136</v>
+      </c>
+      <c r="D134">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>400</v>
+      </c>
+      <c r="B135">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>137</v>
+      </c>
+      <c r="D135">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>400</v>
+      </c>
+      <c r="B136">
+        <v>63</v>
+      </c>
+      <c r="C136" t="s">
+        <v>138</v>
+      </c>
+      <c r="D136">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>400</v>
+      </c>
+      <c r="B137">
+        <v>190</v>
+      </c>
+      <c r="C137" t="s">
+        <v>139</v>
+      </c>
+      <c r="D137">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>400</v>
+      </c>
+      <c r="B138">
+        <v>130</v>
+      </c>
+      <c r="C138" t="s">
+        <v>140</v>
+      </c>
+      <c r="D138">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>400</v>
+      </c>
+      <c r="B139">
+        <v>105</v>
+      </c>
+      <c r="C139" t="s">
+        <v>141</v>
+      </c>
+      <c r="D139">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>400</v>
+      </c>
+      <c r="B140">
+        <v>341</v>
+      </c>
+      <c r="C140" t="s">
+        <v>142</v>
+      </c>
+      <c r="D140">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>400</v>
+      </c>
+      <c r="B141">
+        <v>84</v>
+      </c>
+      <c r="C141" t="s">
+        <v>143</v>
+      </c>
+      <c r="D141">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>400</v>
+      </c>
+      <c r="B142">
+        <v>273</v>
+      </c>
+      <c r="C142" t="s">
+        <v>144</v>
+      </c>
+      <c r="D142">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>400</v>
+      </c>
+      <c r="B143">
+        <v>116</v>
+      </c>
+      <c r="C143" t="s">
+        <v>145</v>
+      </c>
+      <c r="D143">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>400</v>
+      </c>
+      <c r="B144">
+        <v>38</v>
+      </c>
+      <c r="C144" t="s">
+        <v>146</v>
+      </c>
+      <c r="D144">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>400</v>
+      </c>
+      <c r="B145">
+        <v>70</v>
+      </c>
+      <c r="C145" t="s">
+        <v>147</v>
+      </c>
+      <c r="D145">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>400</v>
+      </c>
+      <c r="B146">
+        <v>130</v>
+      </c>
+      <c r="C146" t="s">
+        <v>148</v>
+      </c>
+      <c r="D146">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>400</v>
+      </c>
+      <c r="B147">
+        <v>8</v>
+      </c>
+      <c r="C147" t="s">
+        <v>149</v>
+      </c>
+      <c r="D147">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>400</v>
+      </c>
+      <c r="B148">
+        <v>61</v>
+      </c>
+      <c r="C148" t="s">
+        <v>150</v>
+      </c>
+      <c r="D148">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>400</v>
+      </c>
+      <c r="B149">
+        <v>43</v>
+      </c>
+      <c r="C149" t="s">
+        <v>151</v>
+      </c>
+      <c r="D149">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>400</v>
+      </c>
+      <c r="B150">
+        <v>246</v>
+      </c>
+      <c r="C150" t="s">
+        <v>152</v>
+      </c>
+      <c r="D150">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>400</v>
+      </c>
+      <c r="B151">
+        <v>176</v>
+      </c>
+      <c r="C151" t="s">
+        <v>153</v>
+      </c>
+      <c r="D151">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>400</v>
+      </c>
+      <c r="B152">
+        <v>97</v>
+      </c>
+      <c r="C152" t="s">
+        <v>154</v>
+      </c>
+      <c r="D152">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>400</v>
+      </c>
+      <c r="B153">
+        <v>218</v>
+      </c>
+      <c r="C153" t="s">
+        <v>155</v>
+      </c>
+      <c r="D153">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>400</v>
+      </c>
+      <c r="B154">
+        <v>153</v>
+      </c>
+      <c r="C154" t="s">
+        <v>156</v>
+      </c>
+      <c r="D154">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>400</v>
+      </c>
+      <c r="B155">
+        <v>159</v>
+      </c>
+      <c r="C155" t="s">
+        <v>157</v>
+      </c>
+      <c r="D155">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>400</v>
+      </c>
+      <c r="B156">
+        <v>417</v>
+      </c>
+      <c r="C156" t="s">
+        <v>158</v>
+      </c>
+      <c r="D156">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>400</v>
+      </c>
+      <c r="B157">
+        <v>109</v>
+      </c>
+      <c r="C157" t="s">
+        <v>159</v>
+      </c>
+      <c r="D157">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>400</v>
+      </c>
+      <c r="B158">
+        <v>16</v>
+      </c>
+      <c r="C158" t="s">
+        <v>160</v>
+      </c>
+      <c r="D158">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>400</v>
+      </c>
+      <c r="B159">
+        <v>82</v>
+      </c>
+      <c r="C159" t="s">
+        <v>161</v>
+      </c>
+      <c r="D159">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>400</v>
+      </c>
+      <c r="B160">
+        <v>88</v>
+      </c>
+      <c r="C160" t="s">
+        <v>162</v>
+      </c>
+      <c r="D160">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>400</v>
+      </c>
+      <c r="B161">
+        <v>69</v>
+      </c>
+      <c r="C161" t="s">
+        <v>163</v>
+      </c>
+      <c r="D161">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>400</v>
+      </c>
+      <c r="B162">
+        <v>288</v>
+      </c>
+      <c r="C162" t="s">
+        <v>164</v>
+      </c>
+      <c r="D162">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>400</v>
+      </c>
+      <c r="B163">
+        <v>132</v>
+      </c>
+      <c r="C163" t="s">
+        <v>165</v>
+      </c>
+      <c r="D163">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>400</v>
+      </c>
+      <c r="B164">
+        <v>54</v>
+      </c>
+      <c r="C164" t="s">
+        <v>166</v>
+      </c>
+      <c r="D164">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>400</v>
+      </c>
+      <c r="B165">
+        <v>257</v>
+      </c>
+      <c r="C165" t="s">
+        <v>167</v>
+      </c>
+      <c r="D165">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>400</v>
+      </c>
+      <c r="B166">
+        <v>190</v>
+      </c>
+      <c r="C166" t="s">
+        <v>168</v>
+      </c>
+      <c r="D166">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>200</v>
+      </c>
+      <c r="B167">
+        <v>163</v>
+      </c>
+      <c r="C167" t="s">
+        <v>169</v>
+      </c>
+      <c r="D167">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>400</v>
+      </c>
+      <c r="B168">
+        <v>204</v>
+      </c>
+      <c r="C168" t="s">
+        <v>170</v>
+      </c>
+      <c r="D168">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>400</v>
+      </c>
+      <c r="B169">
+        <v>76</v>
+      </c>
+      <c r="C169" t="s">
+        <v>171</v>
+      </c>
+      <c r="D169">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>400</v>
+      </c>
+      <c r="B170">
+        <v>44</v>
+      </c>
+      <c r="C170" t="s">
+        <v>172</v>
+      </c>
+      <c r="D170">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>400</v>
+      </c>
+      <c r="B171">
+        <v>26</v>
+      </c>
+      <c r="C171" t="s">
+        <v>173</v>
+      </c>
+      <c r="D171">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>400</v>
+      </c>
+      <c r="B172">
+        <v>80</v>
+      </c>
+      <c r="C172" t="s">
+        <v>174</v>
+      </c>
+      <c r="D172">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>200</v>
+      </c>
+      <c r="B173">
+        <v>377</v>
+      </c>
+      <c r="C173" t="s">
+        <v>175</v>
+      </c>
+      <c r="D173">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>400</v>
+      </c>
+      <c r="B174">
+        <v>106</v>
+      </c>
+      <c r="C174" t="s">
+        <v>176</v>
+      </c>
+      <c r="D174">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>400</v>
+      </c>
+      <c r="B175">
+        <v>31</v>
+      </c>
+      <c r="C175" t="s">
+        <v>177</v>
+      </c>
+      <c r="D175">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>400</v>
+      </c>
+      <c r="B176">
+        <v>62</v>
+      </c>
+      <c r="C176" t="s">
+        <v>178</v>
+      </c>
+      <c r="D176">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>400</v>
+      </c>
+      <c r="B177">
+        <v>186</v>
+      </c>
+      <c r="C177" t="s">
+        <v>179</v>
+      </c>
+      <c r="D177">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>400</v>
+      </c>
+      <c r="B178">
+        <v>148</v>
+      </c>
+      <c r="C178" t="s">
+        <v>180</v>
+      </c>
+      <c r="D178">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>400</v>
+      </c>
+      <c r="B179">
+        <v>33</v>
+      </c>
+      <c r="C179" t="s">
+        <v>181</v>
+      </c>
+      <c r="D179">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>400</v>
+      </c>
+      <c r="B180">
+        <v>3</v>
+      </c>
+      <c r="C180" t="s">
+        <v>182</v>
+      </c>
+      <c r="D180">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>400</v>
+      </c>
+      <c r="B181">
+        <v>130</v>
+      </c>
+      <c r="C181" t="s">
+        <v>183</v>
+      </c>
+      <c r="D181">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>400</v>
+      </c>
+      <c r="B182">
+        <v>184</v>
+      </c>
+      <c r="C182" t="s">
+        <v>184</v>
+      </c>
+      <c r="D182">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>400</v>
+      </c>
+      <c r="B183">
+        <v>140</v>
+      </c>
+      <c r="C183" t="s">
+        <v>185</v>
+      </c>
+      <c r="D183">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>400</v>
+      </c>
+      <c r="B184">
+        <v>87</v>
+      </c>
+      <c r="C184" t="s">
+        <v>186</v>
+      </c>
+      <c r="D184">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>400</v>
+      </c>
+      <c r="B185">
+        <v>6</v>
+      </c>
+      <c r="C185" t="s">
+        <v>187</v>
+      </c>
+      <c r="D185">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>400</v>
+      </c>
+      <c r="B186">
+        <v>16</v>
+      </c>
+      <c r="C186" t="s">
+        <v>188</v>
+      </c>
+      <c r="D186">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>400</v>
+      </c>
+      <c r="B187">
+        <v>87</v>
+      </c>
+      <c r="C187" t="s">
+        <v>189</v>
+      </c>
+      <c r="D187">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>400</v>
+      </c>
+      <c r="B188">
+        <v>291</v>
+      </c>
+      <c r="C188" t="s">
+        <v>190</v>
+      </c>
+      <c r="D188">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>400</v>
+      </c>
+      <c r="B189">
+        <v>26</v>
+      </c>
+      <c r="C189" t="s">
+        <v>191</v>
+      </c>
+      <c r="D189">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>400</v>
+      </c>
+      <c r="B190">
+        <v>175</v>
+      </c>
+      <c r="C190" t="s">
+        <v>192</v>
+      </c>
+      <c r="D190">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>400</v>
+      </c>
+      <c r="B191">
+        <v>96</v>
+      </c>
+      <c r="C191" t="s">
+        <v>193</v>
+      </c>
+      <c r="D191">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>400</v>
+      </c>
+      <c r="B192">
+        <v>47</v>
+      </c>
+      <c r="C192" t="s">
+        <v>194</v>
+      </c>
+      <c r="D192">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>400</v>
+      </c>
+      <c r="B193">
+        <v>69</v>
+      </c>
+      <c r="C193" t="s">
+        <v>195</v>
+      </c>
+      <c r="D193">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>400</v>
+      </c>
+      <c r="B194">
+        <v>40</v>
+      </c>
+      <c r="C194" t="s">
+        <v>196</v>
+      </c>
+      <c r="D194">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>400</v>
+      </c>
+      <c r="B195">
+        <v>310</v>
+      </c>
+      <c r="C195" t="s">
+        <v>197</v>
+      </c>
+      <c r="D195">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>400</v>
+      </c>
+      <c r="B196">
+        <v>69</v>
+      </c>
+      <c r="C196" t="s">
+        <v>198</v>
+      </c>
+      <c r="D196">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>400</v>
+      </c>
+      <c r="B197">
+        <v>191</v>
+      </c>
+      <c r="C197" t="s">
+        <v>199</v>
+      </c>
+      <c r="D197">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>400</v>
+      </c>
+      <c r="B198">
+        <v>40</v>
+      </c>
+      <c r="C198" t="s">
+        <v>200</v>
+      </c>
+      <c r="D198">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>400</v>
+      </c>
+      <c r="B199">
+        <v>245</v>
+      </c>
+      <c r="C199" t="s">
+        <v>201</v>
+      </c>
+      <c r="D199">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>400</v>
+      </c>
+      <c r="B200">
+        <v>96</v>
+      </c>
+      <c r="C200" t="s">
+        <v>202</v>
+      </c>
+      <c r="D200">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>400</v>
+      </c>
+      <c r="B201">
+        <v>74</v>
+      </c>
+      <c r="C201" t="s">
+        <v>203</v>
+      </c>
+      <c r="D201">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>400</v>
+      </c>
+      <c r="B202">
+        <v>28</v>
+      </c>
+      <c r="C202" t="s">
+        <v>204</v>
+      </c>
+      <c r="D202">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>400</v>
+      </c>
+      <c r="B203">
+        <v>53</v>
+      </c>
+      <c r="C203" t="s">
+        <v>205</v>
+      </c>
+      <c r="D203">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>400</v>
+      </c>
+      <c r="B204">
+        <v>75</v>
+      </c>
+      <c r="C204" t="s">
+        <v>206</v>
+      </c>
+      <c r="D204">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>400</v>
+      </c>
+      <c r="B205">
+        <v>121</v>
+      </c>
+      <c r="C205" t="s">
+        <v>207</v>
+      </c>
+      <c r="D205">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>400</v>
+      </c>
+      <c r="B206">
+        <v>103</v>
+      </c>
+      <c r="C206" t="s">
+        <v>208</v>
+      </c>
+      <c r="D206">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>400</v>
+      </c>
+      <c r="B207">
+        <v>85</v>
+      </c>
+      <c r="C207" t="s">
+        <v>209</v>
+      </c>
+      <c r="D207">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>400</v>
+      </c>
+      <c r="B208">
+        <v>14</v>
+      </c>
+      <c r="C208" t="s">
+        <v>210</v>
+      </c>
+      <c r="D208">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>400</v>
+      </c>
+      <c r="B209">
+        <v>54</v>
+      </c>
+      <c r="C209" t="s">
+        <v>211</v>
+      </c>
+      <c r="D209">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>400</v>
+      </c>
+      <c r="B210">
+        <v>82</v>
+      </c>
+      <c r="C210" t="s">
+        <v>212</v>
+      </c>
+      <c r="D210">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>400</v>
+      </c>
+      <c r="B211">
+        <v>98</v>
+      </c>
+      <c r="C211" t="s">
+        <v>213</v>
+      </c>
+      <c r="D211">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>400</v>
+      </c>
+      <c r="B212">
+        <v>177</v>
+      </c>
+      <c r="C212" t="s">
+        <v>214</v>
+      </c>
+      <c r="D212">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>400</v>
+      </c>
+      <c r="B213">
+        <v>283</v>
+      </c>
+      <c r="C213" t="s">
+        <v>215</v>
+      </c>
+      <c r="D213">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>400</v>
+      </c>
+      <c r="B214">
+        <v>91</v>
+      </c>
+      <c r="C214" t="s">
+        <v>216</v>
+      </c>
+      <c r="D214">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>400</v>
+      </c>
+      <c r="B215">
+        <v>140</v>
+      </c>
+      <c r="C215" t="s">
+        <v>217</v>
+      </c>
+      <c r="D215">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>400</v>
+      </c>
+      <c r="B216">
+        <v>40</v>
+      </c>
+      <c r="C216" t="s">
+        <v>218</v>
+      </c>
+      <c r="D216">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>400</v>
+      </c>
+      <c r="B217">
+        <v>252</v>
+      </c>
+      <c r="C217" t="s">
+        <v>219</v>
+      </c>
+      <c r="D217">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>400</v>
+      </c>
+      <c r="B218">
+        <v>147</v>
+      </c>
+      <c r="C218" t="s">
+        <v>220</v>
+      </c>
+      <c r="D218">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>400</v>
+      </c>
+      <c r="B219">
+        <v>242</v>
+      </c>
+      <c r="C219" t="s">
+        <v>221</v>
+      </c>
+      <c r="D219">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>400</v>
+      </c>
+      <c r="B220">
+        <v>81</v>
+      </c>
+      <c r="C220" t="s">
+        <v>222</v>
+      </c>
+      <c r="D220">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>400</v>
+      </c>
+      <c r="B221">
+        <v>35</v>
+      </c>
+      <c r="C221" t="s">
+        <v>223</v>
+      </c>
+      <c r="D221">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>400</v>
+      </c>
+      <c r="B222">
+        <v>21</v>
+      </c>
+      <c r="C222" t="s">
+        <v>224</v>
+      </c>
+      <c r="D222">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>400</v>
+      </c>
+      <c r="B223">
+        <v>164</v>
+      </c>
+      <c r="C223" t="s">
+        <v>225</v>
+      </c>
+      <c r="D223">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>400</v>
+      </c>
+      <c r="B224">
+        <v>97</v>
+      </c>
+      <c r="C224" t="s">
+        <v>226</v>
+      </c>
+      <c r="D224">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>400</v>
+      </c>
+      <c r="B225">
+        <v>53</v>
+      </c>
+      <c r="C225" t="s">
+        <v>227</v>
+      </c>
+      <c r="D225">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>400</v>
+      </c>
+      <c r="B226">
+        <v>100</v>
+      </c>
+      <c r="C226" t="s">
+        <v>228</v>
+      </c>
+      <c r="D226">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>400</v>
+      </c>
+      <c r="B227">
+        <v>54</v>
+      </c>
+      <c r="C227" t="s">
+        <v>229</v>
+      </c>
+      <c r="D227">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>400</v>
+      </c>
+      <c r="B228">
+        <v>3</v>
+      </c>
+      <c r="C228" t="s">
+        <v>230</v>
+      </c>
+      <c r="D228">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>400</v>
+      </c>
+      <c r="B229">
+        <v>27</v>
+      </c>
+      <c r="C229" t="s">
+        <v>231</v>
+      </c>
+      <c r="D229">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>400</v>
+      </c>
+      <c r="B230">
+        <v>190</v>
+      </c>
+      <c r="C230" t="s">
+        <v>232</v>
+      </c>
+      <c r="D230">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>400</v>
+      </c>
+      <c r="B231">
+        <v>134</v>
+      </c>
+      <c r="C231" t="s">
+        <v>233</v>
+      </c>
+      <c r="D231">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>400</v>
+      </c>
+      <c r="B232">
+        <v>59</v>
+      </c>
+      <c r="C232" t="s">
+        <v>234</v>
+      </c>
+      <c r="D232">
         <v>24</v>
       </c>
     </row>
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>400</v>
+      </c>
+      <c r="B233">
+        <v>8</v>
+      </c>
+      <c r="C233" t="s">
+        <v>235</v>
+      </c>
+      <c r="D233">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>400</v>
+      </c>
+      <c r="B234">
+        <v>29</v>
+      </c>
+      <c r="C234" t="s">
+        <v>236</v>
+      </c>
+      <c r="D234">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>400</v>
+      </c>
+      <c r="B235">
+        <v>139</v>
+      </c>
+      <c r="C235" t="s">
+        <v>237</v>
+      </c>
+      <c r="D235">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>400</v>
+      </c>
+      <c r="B236">
+        <v>88</v>
+      </c>
+      <c r="C236" t="s">
+        <v>238</v>
+      </c>
+      <c r="D236">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>400</v>
+      </c>
+      <c r="B237">
+        <v>147</v>
+      </c>
+      <c r="C237" t="s">
+        <v>239</v>
+      </c>
+      <c r="D237">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>400</v>
+      </c>
+      <c r="B238">
+        <v>108</v>
+      </c>
+      <c r="C238" t="s">
+        <v>240</v>
+      </c>
+      <c r="D238">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>400</v>
+      </c>
+      <c r="B239">
+        <v>56</v>
+      </c>
+      <c r="C239" t="s">
+        <v>241</v>
+      </c>
+      <c r="D239">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>400</v>
+      </c>
+      <c r="B240">
+        <v>75</v>
+      </c>
+      <c r="C240" t="s">
+        <v>242</v>
+      </c>
+      <c r="D240">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>400</v>
+      </c>
+      <c r="B241">
+        <v>31</v>
+      </c>
+      <c r="C241" t="s">
+        <v>243</v>
+      </c>
+      <c r="D241">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>400</v>
+      </c>
+      <c r="B242">
+        <v>4</v>
+      </c>
+      <c r="C242" t="s">
+        <v>244</v>
+      </c>
+      <c r="D242">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>400</v>
+      </c>
+      <c r="B243">
+        <v>142</v>
+      </c>
+      <c r="C243" t="s">
+        <v>245</v>
+      </c>
+      <c r="D243">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>400</v>
+      </c>
+      <c r="B244">
+        <v>21</v>
+      </c>
+      <c r="C244" t="s">
+        <v>246</v>
+      </c>
+      <c r="D244">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>400</v>
+      </c>
+      <c r="B245">
+        <v>28</v>
+      </c>
+      <c r="C245" t="s">
+        <v>247</v>
+      </c>
+      <c r="D245">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>400</v>
+      </c>
+      <c r="B246">
+        <v>348</v>
+      </c>
+      <c r="C246" t="s">
+        <v>248</v>
+      </c>
+      <c r="D246">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>400</v>
+      </c>
+      <c r="B247">
+        <v>53</v>
+      </c>
+      <c r="C247" t="s">
+        <v>249</v>
+      </c>
+      <c r="D247">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>400</v>
+      </c>
+      <c r="B248">
+        <v>198</v>
+      </c>
+      <c r="C248" t="s">
+        <v>250</v>
+      </c>
+      <c r="D248">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>400</v>
+      </c>
+      <c r="B249">
+        <v>21</v>
+      </c>
+      <c r="C249" t="s">
+        <v>251</v>
+      </c>
+      <c r="D249">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>400</v>
+      </c>
+      <c r="B250">
+        <v>28</v>
+      </c>
+      <c r="C250" t="s">
+        <v>252</v>
+      </c>
+      <c r="D250">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>400</v>
+      </c>
+      <c r="B251">
+        <v>79</v>
+      </c>
+      <c r="C251" t="s">
+        <v>253</v>
+      </c>
+      <c r="D251">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>400</v>
+      </c>
+      <c r="B252">
+        <v>47</v>
+      </c>
+      <c r="C252" t="s">
+        <v>254</v>
+      </c>
+      <c r="D252">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>400</v>
+      </c>
+      <c r="B253">
+        <v>102</v>
+      </c>
+      <c r="C253" t="s">
+        <v>255</v>
+      </c>
+      <c r="D253">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>400</v>
+      </c>
+      <c r="B254">
+        <v>99</v>
+      </c>
+      <c r="C254" t="s">
+        <v>256</v>
+      </c>
+      <c r="D254">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>400</v>
+      </c>
+      <c r="B255">
+        <v>74</v>
+      </c>
+      <c r="C255" t="s">
+        <v>257</v>
+      </c>
+      <c r="D255">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>400</v>
+      </c>
+      <c r="B256">
+        <v>95</v>
+      </c>
+      <c r="C256" t="s">
+        <v>258</v>
+      </c>
+      <c r="D256">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>400</v>
+      </c>
+      <c r="B257">
+        <v>73</v>
+      </c>
+      <c r="C257" t="s">
+        <v>259</v>
+      </c>
+      <c r="D257">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>400</v>
+      </c>
+      <c r="B258">
+        <v>34</v>
+      </c>
+      <c r="C258" t="s">
+        <v>260</v>
+      </c>
+      <c r="D258">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>400</v>
+      </c>
+      <c r="B259">
+        <v>84</v>
+      </c>
+      <c r="C259" t="s">
+        <v>261</v>
+      </c>
+      <c r="D259">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>400</v>
+      </c>
+      <c r="B260">
+        <v>81</v>
+      </c>
+      <c r="C260" t="s">
+        <v>262</v>
+      </c>
+      <c r="D260">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>400</v>
+      </c>
+      <c r="B261">
+        <v>110</v>
+      </c>
+      <c r="C261" t="s">
+        <v>263</v>
+      </c>
+      <c r="D261">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>400</v>
+      </c>
+      <c r="B262">
+        <v>95</v>
+      </c>
+      <c r="C262" t="s">
+        <v>264</v>
+      </c>
+      <c r="D262">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>400</v>
+      </c>
+      <c r="B263">
+        <v>119</v>
+      </c>
+      <c r="C263" t="s">
+        <v>265</v>
+      </c>
+      <c r="D263">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>400</v>
+      </c>
+      <c r="B264">
+        <v>61</v>
+      </c>
+      <c r="C264" t="s">
+        <v>266</v>
+      </c>
+      <c r="D264">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>400</v>
+      </c>
+      <c r="B265">
+        <v>82</v>
+      </c>
+      <c r="C265" t="s">
+        <v>267</v>
+      </c>
+      <c r="D265">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>400</v>
+      </c>
+      <c r="B266">
+        <v>213</v>
+      </c>
+      <c r="C266" t="s">
+        <v>268</v>
+      </c>
+      <c r="D266">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>400</v>
+      </c>
+      <c r="B267">
+        <v>140</v>
+      </c>
+      <c r="C267" t="s">
+        <v>269</v>
+      </c>
+      <c r="D267">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>400</v>
+      </c>
+      <c r="B268">
+        <v>61</v>
+      </c>
+      <c r="C268" t="s">
+        <v>270</v>
+      </c>
+      <c r="D268">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>400</v>
+      </c>
+      <c r="B269">
+        <v>65</v>
+      </c>
+      <c r="C269" t="s">
+        <v>271</v>
+      </c>
+      <c r="D269">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>400</v>
+      </c>
+      <c r="B270">
+        <v>172</v>
+      </c>
+      <c r="C270" t="s">
+        <v>272</v>
+      </c>
+      <c r="D270">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>400</v>
+      </c>
+      <c r="B271">
+        <v>124</v>
+      </c>
+      <c r="C271" t="s">
+        <v>273</v>
+      </c>
+      <c r="D271">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>400</v>
+      </c>
+      <c r="B272">
+        <v>28</v>
+      </c>
+      <c r="C272" t="s">
+        <v>274</v>
+      </c>
+      <c r="D272">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>400</v>
+      </c>
+      <c r="B273">
+        <v>7</v>
+      </c>
+      <c r="C273" t="s">
+        <v>275</v>
+      </c>
+      <c r="D273">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>400</v>
+      </c>
+      <c r="B274">
+        <v>48</v>
+      </c>
+      <c r="C274" t="s">
+        <v>276</v>
+      </c>
+      <c r="D274">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>400</v>
+      </c>
+      <c r="B275">
+        <v>51</v>
+      </c>
+      <c r="C275" t="s">
+        <v>277</v>
+      </c>
+      <c r="D275">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>400</v>
+      </c>
+      <c r="B276">
+        <v>11</v>
+      </c>
+      <c r="C276" t="s">
+        <v>278</v>
+      </c>
+      <c r="D276">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>400</v>
+      </c>
+      <c r="B277">
+        <v>226</v>
+      </c>
+      <c r="C277" t="s">
+        <v>279</v>
+      </c>
+      <c r="D277">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>400</v>
+      </c>
+      <c r="B278">
+        <v>146</v>
+      </c>
+      <c r="C278" t="s">
+        <v>280</v>
+      </c>
+      <c r="D278">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>400</v>
+      </c>
+      <c r="B279">
+        <v>19</v>
+      </c>
+      <c r="C279" t="s">
+        <v>281</v>
+      </c>
+      <c r="D279">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>400</v>
+      </c>
+      <c r="B280">
+        <v>69</v>
+      </c>
+      <c r="C280" t="s">
+        <v>282</v>
+      </c>
+      <c r="D280">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>400</v>
+      </c>
+      <c r="B281">
+        <v>85</v>
+      </c>
+      <c r="C281" t="s">
+        <v>283</v>
+      </c>
+      <c r="D281">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>400</v>
+      </c>
+      <c r="B282">
+        <v>65</v>
+      </c>
+      <c r="C282" t="s">
+        <v>284</v>
+      </c>
+      <c r="D282">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>400</v>
+      </c>
+      <c r="B283">
+        <v>208</v>
+      </c>
+      <c r="C283" t="s">
+        <v>285</v>
+      </c>
+      <c r="D283">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>400</v>
+      </c>
+      <c r="B284">
+        <v>394</v>
+      </c>
+      <c r="C284" t="s">
+        <v>286</v>
+      </c>
+      <c r="D284">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>400</v>
+      </c>
+      <c r="B285">
+        <v>59</v>
+      </c>
+      <c r="C285" t="s">
+        <v>287</v>
+      </c>
+      <c r="D285">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>400</v>
+      </c>
+      <c r="B286">
+        <v>169</v>
+      </c>
+      <c r="C286" t="s">
+        <v>288</v>
+      </c>
+      <c r="D286">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>400</v>
+      </c>
+      <c r="B287">
+        <v>92</v>
+      </c>
+      <c r="C287" t="s">
+        <v>289</v>
+      </c>
+      <c r="D287">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>400</v>
+      </c>
+      <c r="B288">
+        <v>43</v>
+      </c>
+      <c r="C288" t="s">
+        <v>290</v>
+      </c>
+      <c r="D288">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>400</v>
+      </c>
+      <c r="B289">
+        <v>41</v>
+      </c>
+      <c r="C289" t="s">
+        <v>291</v>
+      </c>
+      <c r="D289">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>400</v>
+      </c>
+      <c r="B290">
+        <v>24</v>
+      </c>
+      <c r="C290" t="s">
+        <v>292</v>
+      </c>
+      <c r="D290">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>400</v>
+      </c>
+      <c r="B291">
+        <v>158</v>
+      </c>
+      <c r="C291" t="s">
+        <v>293</v>
+      </c>
+      <c r="D291">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>400</v>
+      </c>
+      <c r="B292">
+        <v>146</v>
+      </c>
+      <c r="C292" t="s">
+        <v>294</v>
+      </c>
+      <c r="D292">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>400</v>
+      </c>
+      <c r="B293">
+        <v>24</v>
+      </c>
+      <c r="C293" t="s">
+        <v>295</v>
+      </c>
+      <c r="D293">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>400</v>
+      </c>
+      <c r="B294">
+        <v>132</v>
+      </c>
+      <c r="C294" t="s">
+        <v>296</v>
+      </c>
+      <c r="D294">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>400</v>
+      </c>
+      <c r="B295">
+        <v>68</v>
+      </c>
+      <c r="C295" t="s">
+        <v>297</v>
+      </c>
+      <c r="D295">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>400</v>
+      </c>
+      <c r="B296">
+        <v>117</v>
+      </c>
+      <c r="C296" t="s">
+        <v>298</v>
+      </c>
+      <c r="D296">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>400</v>
+      </c>
+      <c r="B297">
+        <v>84</v>
+      </c>
+      <c r="C297" t="s">
+        <v>299</v>
+      </c>
+      <c r="D297">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>400</v>
+      </c>
+      <c r="B298">
+        <v>12</v>
+      </c>
+      <c r="C298" t="s">
+        <v>300</v>
+      </c>
+      <c r="D298">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>400</v>
+      </c>
+      <c r="B299">
+        <v>39</v>
+      </c>
+      <c r="C299" t="s">
+        <v>301</v>
+      </c>
+      <c r="D299">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>400</v>
+      </c>
+      <c r="B300">
+        <v>28</v>
+      </c>
+      <c r="C300" t="s">
+        <v>302</v>
+      </c>
+      <c r="D300">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>400</v>
+      </c>
+      <c r="B301">
+        <v>33</v>
+      </c>
+      <c r="C301" t="s">
+        <v>303</v>
+      </c>
+      <c r="D301">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>400</v>
+      </c>
+      <c r="B302">
+        <v>263</v>
+      </c>
+      <c r="C302" t="s">
+        <v>304</v>
+      </c>
+      <c r="D302">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>400</v>
+      </c>
+      <c r="B303">
+        <v>25</v>
+      </c>
+      <c r="C303" t="s">
+        <v>305</v>
+      </c>
+      <c r="D303">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>400</v>
+      </c>
+      <c r="B304">
+        <v>152</v>
+      </c>
+      <c r="C304" t="s">
+        <v>306</v>
+      </c>
+      <c r="D304">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>400</v>
+      </c>
+      <c r="B305">
+        <v>105</v>
+      </c>
+      <c r="C305" t="s">
+        <v>307</v>
+      </c>
+      <c r="D305">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>400</v>
+      </c>
+      <c r="B306">
+        <v>109</v>
+      </c>
+      <c r="C306" t="s">
+        <v>308</v>
+      </c>
+      <c r="D306">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>400</v>
+      </c>
+      <c r="B307">
+        <v>50</v>
+      </c>
+      <c r="C307" t="s">
+        <v>309</v>
+      </c>
+      <c r="D307">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>400</v>
+      </c>
+      <c r="B308">
+        <v>131</v>
+      </c>
+      <c r="C308" t="s">
+        <v>310</v>
+      </c>
+      <c r="D308">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>400</v>
+      </c>
+      <c r="B309">
+        <v>39</v>
+      </c>
+      <c r="C309" t="s">
+        <v>311</v>
+      </c>
+      <c r="D309">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>400</v>
+      </c>
+      <c r="B310">
+        <v>151</v>
+      </c>
+      <c r="C310" t="s">
+        <v>312</v>
+      </c>
+      <c r="D310">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>400</v>
+      </c>
+      <c r="B311">
+        <v>116</v>
+      </c>
+      <c r="C311" t="s">
+        <v>313</v>
+      </c>
+      <c r="D311">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>400</v>
+      </c>
+      <c r="B312">
+        <v>64</v>
+      </c>
+      <c r="C312" t="s">
+        <v>314</v>
+      </c>
+      <c r="D312">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>400</v>
+      </c>
+      <c r="B313">
+        <v>29</v>
+      </c>
+      <c r="C313" t="s">
+        <v>315</v>
+      </c>
+      <c r="D313">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>400</v>
+      </c>
+      <c r="B314">
+        <v>20</v>
+      </c>
+      <c r="C314" t="s">
+        <v>316</v>
+      </c>
+      <c r="D314">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>400</v>
+      </c>
+      <c r="B315">
+        <v>19</v>
+      </c>
+      <c r="C315" t="s">
+        <v>317</v>
+      </c>
+      <c r="D315">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>400</v>
+      </c>
+      <c r="B316">
+        <v>89</v>
+      </c>
+      <c r="C316" t="s">
+        <v>318</v>
+      </c>
+      <c r="D316">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>400</v>
+      </c>
+      <c r="B317">
+        <v>54</v>
+      </c>
+      <c r="C317" t="s">
+        <v>319</v>
+      </c>
+      <c r="D317">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>400</v>
+      </c>
+      <c r="B318">
+        <v>32</v>
+      </c>
+      <c r="C318" t="s">
+        <v>320</v>
+      </c>
+      <c r="D318">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>400</v>
+      </c>
+      <c r="B319">
+        <v>35</v>
+      </c>
+      <c r="C319" t="s">
+        <v>321</v>
+      </c>
+      <c r="D319">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>400</v>
+      </c>
+      <c r="B320">
+        <v>167</v>
+      </c>
+      <c r="C320" t="s">
+        <v>322</v>
+      </c>
+      <c r="D320">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>400</v>
+      </c>
+      <c r="B321">
+        <v>90</v>
+      </c>
+      <c r="C321" t="s">
+        <v>323</v>
+      </c>
+      <c r="D321">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>400</v>
+      </c>
+      <c r="B322">
+        <v>35</v>
+      </c>
+      <c r="C322" t="s">
+        <v>324</v>
+      </c>
+      <c r="D322">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>400</v>
+      </c>
+      <c r="B323">
+        <v>25</v>
+      </c>
+      <c r="C323" t="s">
+        <v>325</v>
+      </c>
+      <c r="D323">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>400</v>
+      </c>
+      <c r="B324">
+        <v>69</v>
+      </c>
+      <c r="C324" t="s">
+        <v>326</v>
+      </c>
+      <c r="D324">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>400</v>
+      </c>
+      <c r="B325">
+        <v>42</v>
+      </c>
+      <c r="C325" t="s">
+        <v>327</v>
+      </c>
+      <c r="D325">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>400</v>
+      </c>
+      <c r="B326">
+        <v>72</v>
+      </c>
+      <c r="C326" t="s">
+        <v>328</v>
+      </c>
+      <c r="D326">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>400</v>
+      </c>
+      <c r="B327">
+        <v>42</v>
+      </c>
+      <c r="C327" t="s">
+        <v>329</v>
+      </c>
+      <c r="D327">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>400</v>
+      </c>
+      <c r="B328">
+        <v>216</v>
+      </c>
+      <c r="C328" t="s">
+        <v>330</v>
+      </c>
+      <c r="D328">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>400</v>
+      </c>
+      <c r="B329">
+        <v>60</v>
+      </c>
+      <c r="C329" t="s">
+        <v>331</v>
+      </c>
+      <c r="D329">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>200</v>
+      </c>
+      <c r="B330">
+        <v>183</v>
+      </c>
+      <c r="C330" t="s">
+        <v>332</v>
+      </c>
+      <c r="D330">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>400</v>
+      </c>
+      <c r="B331">
+        <v>23</v>
+      </c>
+      <c r="C331" t="s">
+        <v>333</v>
+      </c>
+      <c r="D331">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>400</v>
+      </c>
+      <c r="B332">
+        <v>32</v>
+      </c>
+      <c r="C332" t="s">
+        <v>334</v>
+      </c>
+      <c r="D332">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>400</v>
+      </c>
+      <c r="B333">
+        <v>45</v>
+      </c>
+      <c r="C333" t="s">
+        <v>335</v>
+      </c>
+      <c r="D333">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>400</v>
+      </c>
+      <c r="B334">
+        <v>86</v>
+      </c>
+      <c r="C334" t="s">
+        <v>336</v>
+      </c>
+      <c r="D334">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>400</v>
+      </c>
+      <c r="B335">
+        <v>35</v>
+      </c>
+      <c r="C335" t="s">
+        <v>337</v>
+      </c>
+      <c r="D335">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>400</v>
+      </c>
+      <c r="B336">
+        <v>131</v>
+      </c>
+      <c r="C336" t="s">
+        <v>338</v>
+      </c>
+      <c r="D336">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>400</v>
+      </c>
+      <c r="B337">
+        <v>20</v>
+      </c>
+      <c r="C337" t="s">
+        <v>339</v>
+      </c>
+      <c r="D337">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>400</v>
+      </c>
+      <c r="B338">
+        <v>14</v>
+      </c>
+      <c r="C338" t="s">
+        <v>340</v>
+      </c>
+      <c r="D338">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>400</v>
+      </c>
+      <c r="B339">
+        <v>115</v>
+      </c>
+      <c r="C339" t="s">
+        <v>341</v>
+      </c>
+      <c r="D339">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>400</v>
+      </c>
+      <c r="B340">
+        <v>104</v>
+      </c>
+      <c r="C340" t="s">
+        <v>342</v>
+      </c>
+      <c r="D340">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>200</v>
+      </c>
+      <c r="B341">
+        <v>251</v>
+      </c>
+      <c r="C341" t="s">
+        <v>343</v>
+      </c>
+      <c r="D341">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>400</v>
+      </c>
+      <c r="B342">
+        <v>60</v>
+      </c>
+      <c r="C342" t="s">
+        <v>344</v>
+      </c>
+      <c r="D342">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>400</v>
+      </c>
+      <c r="B343">
+        <v>102</v>
+      </c>
+      <c r="C343" t="s">
+        <v>345</v>
+      </c>
+      <c r="D343">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>400</v>
+      </c>
+      <c r="B344">
+        <v>102</v>
+      </c>
+      <c r="C344" t="s">
+        <v>346</v>
+      </c>
+      <c r="D344">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>400</v>
+      </c>
+      <c r="B345">
+        <v>23</v>
+      </c>
+      <c r="C345" t="s">
+        <v>347</v>
+      </c>
+      <c r="D345">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>400</v>
+      </c>
+      <c r="B346">
+        <v>44</v>
+      </c>
+      <c r="C346" t="s">
+        <v>348</v>
+      </c>
+      <c r="D346">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>400</v>
+      </c>
+      <c r="B347">
+        <v>23</v>
+      </c>
+      <c r="C347" t="s">
+        <v>349</v>
+      </c>
+      <c r="D347">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>400</v>
+      </c>
+      <c r="B348">
+        <v>60</v>
+      </c>
+      <c r="C348" t="s">
+        <v>350</v>
+      </c>
+      <c r="D348">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>400</v>
+      </c>
+      <c r="B349">
+        <v>106</v>
+      </c>
+      <c r="C349" t="s">
+        <v>351</v>
+      </c>
+      <c r="D349">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>400</v>
+      </c>
+      <c r="B350">
+        <v>48</v>
+      </c>
+      <c r="C350" t="s">
+        <v>352</v>
+      </c>
+      <c r="D350">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>400</v>
+      </c>
+      <c r="B351">
+        <v>80</v>
+      </c>
+      <c r="C351" t="s">
+        <v>353</v>
+      </c>
+      <c r="D351">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>400</v>
+      </c>
+      <c r="B352">
+        <v>125</v>
+      </c>
+      <c r="C352" t="s">
+        <v>354</v>
+      </c>
+      <c r="D352">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>400</v>
+      </c>
+      <c r="B353">
+        <v>18</v>
+      </c>
+      <c r="C353" t="s">
+        <v>355</v>
+      </c>
+      <c r="D353">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>400</v>
+      </c>
+      <c r="B354">
+        <v>92</v>
+      </c>
+      <c r="C354" t="s">
+        <v>356</v>
+      </c>
+      <c r="D354">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>400</v>
+      </c>
+      <c r="B355">
+        <v>141</v>
+      </c>
+      <c r="C355" t="s">
+        <v>357</v>
+      </c>
+      <c r="D355">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>400</v>
+      </c>
+      <c r="B356">
+        <v>13</v>
+      </c>
+      <c r="C356" t="s">
+        <v>358</v>
+      </c>
+      <c r="D356">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>400</v>
+      </c>
+      <c r="B357">
+        <v>5</v>
+      </c>
+      <c r="C357" t="s">
+        <v>359</v>
+      </c>
+      <c r="D357">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>400</v>
+      </c>
+      <c r="B358">
+        <v>87</v>
+      </c>
+      <c r="C358" t="s">
+        <v>360</v>
+      </c>
+      <c r="D358">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>400</v>
+      </c>
+      <c r="B359">
+        <v>72</v>
+      </c>
+      <c r="C359" t="s">
+        <v>361</v>
+      </c>
+      <c r="D359">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>400</v>
+      </c>
+      <c r="B360">
+        <v>52</v>
+      </c>
+      <c r="C360" t="s">
+        <v>362</v>
+      </c>
+      <c r="D360">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>400</v>
+      </c>
+      <c r="B361">
+        <v>117</v>
+      </c>
+      <c r="C361" t="s">
+        <v>363</v>
+      </c>
+      <c r="D361">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>400</v>
+      </c>
+      <c r="B362">
+        <v>94</v>
+      </c>
+      <c r="C362" t="s">
+        <v>364</v>
+      </c>
+      <c r="D362">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>400</v>
+      </c>
+      <c r="B363">
+        <v>11</v>
+      </c>
+      <c r="C363" t="s">
+        <v>365</v>
+      </c>
+      <c r="D363">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>400</v>
+      </c>
+      <c r="B364">
+        <v>22</v>
+      </c>
+      <c r="C364" t="s">
+        <v>366</v>
+      </c>
+      <c r="D364">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>400</v>
+      </c>
+      <c r="B365">
+        <v>36</v>
+      </c>
+      <c r="C365" t="s">
+        <v>367</v>
+      </c>
+      <c r="D365">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>400</v>
+      </c>
+      <c r="B366">
+        <v>73</v>
+      </c>
+      <c r="C366" t="s">
+        <v>368</v>
+      </c>
+      <c r="D366">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>400</v>
+      </c>
+      <c r="B367">
+        <v>58</v>
+      </c>
+      <c r="C367" t="s">
+        <v>369</v>
+      </c>
+      <c r="D367">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>400</v>
+      </c>
+      <c r="B368">
+        <v>31</v>
+      </c>
+      <c r="C368" t="s">
+        <v>370</v>
+      </c>
+      <c r="D368">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>400</v>
+      </c>
+      <c r="B369">
+        <v>32</v>
+      </c>
+      <c r="C369" t="s">
+        <v>371</v>
+      </c>
+      <c r="D369">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>400</v>
+      </c>
+      <c r="B370">
+        <v>41</v>
+      </c>
+      <c r="C370" t="s">
+        <v>372</v>
+      </c>
+      <c r="D370">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>400</v>
+      </c>
+      <c r="B371">
+        <v>19</v>
+      </c>
+      <c r="C371" t="s">
+        <v>373</v>
+      </c>
+      <c r="D371">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>400</v>
+      </c>
+      <c r="B372">
+        <v>60</v>
+      </c>
+      <c r="C372" t="s">
+        <v>374</v>
+      </c>
+      <c r="D372">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>400</v>
+      </c>
+      <c r="B373">
+        <v>52</v>
+      </c>
+      <c r="C373" t="s">
+        <v>375</v>
+      </c>
+      <c r="D373">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>400</v>
+      </c>
+      <c r="B374">
+        <v>71</v>
+      </c>
+      <c r="C374" t="s">
+        <v>376</v>
+      </c>
+      <c r="D374">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>400</v>
+      </c>
+      <c r="B375">
+        <v>185</v>
+      </c>
+      <c r="C375" t="s">
+        <v>377</v>
+      </c>
+      <c r="D375">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>400</v>
+      </c>
+      <c r="B376">
+        <v>22</v>
+      </c>
+      <c r="C376" t="s">
+        <v>378</v>
+      </c>
+      <c r="D376">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>400</v>
+      </c>
+      <c r="B377">
+        <v>247</v>
+      </c>
+      <c r="C377" t="s">
+        <v>379</v>
+      </c>
+      <c r="D377">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>400</v>
+      </c>
+      <c r="B378">
+        <v>29</v>
+      </c>
+      <c r="C378" t="s">
+        <v>380</v>
+      </c>
+      <c r="D378">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>400</v>
+      </c>
+      <c r="B379">
+        <v>56</v>
+      </c>
+      <c r="C379" t="s">
+        <v>381</v>
+      </c>
+      <c r="D379">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>400</v>
+      </c>
+      <c r="B380">
+        <v>11</v>
+      </c>
+      <c r="C380" t="s">
+        <v>382</v>
+      </c>
+      <c r="D380">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>400</v>
+      </c>
+      <c r="B381">
+        <v>7</v>
+      </c>
+      <c r="C381" t="s">
+        <v>383</v>
+      </c>
+      <c r="D381">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>400</v>
+      </c>
+      <c r="B382">
+        <v>35</v>
+      </c>
+      <c r="C382" t="s">
+        <v>384</v>
+      </c>
+      <c r="D382">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>400</v>
+      </c>
+      <c r="B383">
+        <v>184</v>
+      </c>
+      <c r="C383" t="s">
+        <v>385</v>
+      </c>
+      <c r="D383">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>400</v>
+      </c>
+      <c r="B384">
+        <v>5</v>
+      </c>
+      <c r="C384" t="s">
+        <v>386</v>
+      </c>
+      <c r="D384">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>400</v>
+      </c>
+      <c r="B385">
+        <v>23</v>
+      </c>
+      <c r="C385" t="s">
+        <v>387</v>
+      </c>
+      <c r="D385">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>400</v>
+      </c>
+      <c r="B386">
+        <v>91</v>
+      </c>
+      <c r="C386" t="s">
+        <v>388</v>
+      </c>
+      <c r="D386">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>400</v>
+      </c>
+      <c r="B387">
+        <v>256</v>
+      </c>
+      <c r="C387" t="s">
+        <v>389</v>
+      </c>
+      <c r="D387">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>400</v>
+      </c>
+      <c r="B388">
+        <v>25</v>
+      </c>
+      <c r="C388" t="s">
+        <v>390</v>
+      </c>
+      <c r="D388">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>400</v>
+      </c>
+      <c r="B389">
+        <v>80</v>
+      </c>
+      <c r="C389" t="s">
+        <v>391</v>
+      </c>
+      <c r="D389">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>400</v>
+      </c>
+      <c r="B390">
+        <v>233</v>
+      </c>
+      <c r="C390" t="s">
+        <v>392</v>
+      </c>
+      <c r="D390">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>400</v>
+      </c>
+      <c r="B391">
+        <v>31</v>
+      </c>
+      <c r="C391" t="s">
+        <v>393</v>
+      </c>
+      <c r="D391">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>400</v>
+      </c>
+      <c r="B392">
+        <v>23</v>
+      </c>
+      <c r="C392" t="s">
+        <v>394</v>
+      </c>
+      <c r="D392">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>400</v>
+      </c>
+      <c r="B393">
+        <v>17</v>
+      </c>
+      <c r="C393" t="s">
+        <v>395</v>
+      </c>
+      <c r="D393">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>400</v>
+      </c>
+      <c r="B394">
+        <v>65</v>
+      </c>
+      <c r="C394" t="s">
+        <v>396</v>
+      </c>
+      <c r="D394">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>400</v>
+      </c>
+      <c r="B395">
+        <v>112</v>
+      </c>
+      <c r="C395" t="s">
+        <v>397</v>
+      </c>
+      <c r="D395">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>400</v>
+      </c>
+      <c r="B396">
+        <v>181</v>
+      </c>
+      <c r="C396" t="s">
+        <v>398</v>
+      </c>
+      <c r="D396">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>400</v>
+      </c>
+      <c r="B397">
+        <v>54</v>
+      </c>
+      <c r="C397" t="s">
+        <v>399</v>
+      </c>
+      <c r="D397">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>400</v>
+      </c>
+      <c r="B398">
+        <v>89</v>
+      </c>
+      <c r="C398" t="s">
+        <v>400</v>
+      </c>
+      <c r="D398">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>400</v>
+      </c>
+      <c r="B399">
+        <v>50</v>
+      </c>
+      <c r="C399" t="s">
+        <v>401</v>
+      </c>
+      <c r="D399">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>400</v>
+      </c>
+      <c r="B400">
+        <v>68</v>
+      </c>
+      <c r="C400" t="s">
+        <v>402</v>
+      </c>
+      <c r="D400">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="B401">
+        <v>143</v>
+      </c>
+      <c r="C401" t="s">
+        <v>403</v>
+      </c>
+      <c r="D401">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>29</v>
+      </c>
+      <c r="C402" t="s">
+        <v>404</v>
+      </c>
+      <c r="D402">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>400</v>
+      </c>
+      <c r="B403">
+        <v>15</v>
+      </c>
+      <c r="C403" t="s">
+        <v>405</v>
+      </c>
+      <c r="D403">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>400</v>
+      </c>
+      <c r="B404">
+        <v>27</v>
+      </c>
+      <c r="C404" t="s">
+        <v>406</v>
+      </c>
+      <c r="D404">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>400</v>
+      </c>
+      <c r="B405">
+        <v>134</v>
+      </c>
+      <c r="C405" t="s">
+        <v>407</v>
+      </c>
+      <c r="D405">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>400</v>
+      </c>
+      <c r="B406">
+        <v>21</v>
+      </c>
+      <c r="C406" t="s">
+        <v>408</v>
+      </c>
+      <c r="D406">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>400</v>
+      </c>
+      <c r="B407">
+        <v>37</v>
+      </c>
+      <c r="C407" t="s">
+        <v>409</v>
+      </c>
+      <c r="D407">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>400</v>
+      </c>
+      <c r="B408">
+        <v>27</v>
+      </c>
+      <c r="C408" t="s">
+        <v>410</v>
+      </c>
+      <c r="D408">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>400</v>
+      </c>
+      <c r="B409">
+        <v>63</v>
+      </c>
+      <c r="C409" t="s">
+        <v>411</v>
+      </c>
+      <c r="D409">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>400</v>
+      </c>
+      <c r="B410">
+        <v>5</v>
+      </c>
+      <c r="C410" t="s">
+        <v>412</v>
+      </c>
+      <c r="D410">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>400</v>
+      </c>
+      <c r="B411">
+        <v>61</v>
+      </c>
+      <c r="C411" t="s">
+        <v>413</v>
+      </c>
+      <c r="D411">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>400</v>
+      </c>
+      <c r="B412">
+        <v>46</v>
+      </c>
+      <c r="C412" t="s">
+        <v>414</v>
+      </c>
+      <c r="D412">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>400</v>
+      </c>
+      <c r="B413">
+        <v>21</v>
+      </c>
+      <c r="C413" t="s">
+        <v>415</v>
+      </c>
+      <c r="D413">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>400</v>
+      </c>
+      <c r="B414">
+        <v>43</v>
+      </c>
+      <c r="C414" t="s">
+        <v>416</v>
+      </c>
+      <c r="D414">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>400</v>
+      </c>
+      <c r="B415">
+        <v>63</v>
+      </c>
+      <c r="C415" t="s">
+        <v>417</v>
+      </c>
+      <c r="D415">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>400</v>
+      </c>
+      <c r="B416">
+        <v>37</v>
+      </c>
+      <c r="C416" t="s">
+        <v>418</v>
+      </c>
+      <c r="D416">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>400</v>
+      </c>
+      <c r="B417">
+        <v>74</v>
+      </c>
+      <c r="C417" t="s">
+        <v>419</v>
+      </c>
+      <c r="D417">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>400</v>
+      </c>
+      <c r="B418">
+        <v>29</v>
+      </c>
+      <c r="C418" t="s">
+        <v>420</v>
+      </c>
+      <c r="D418">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>400</v>
+      </c>
+      <c r="B419">
+        <v>10</v>
+      </c>
+      <c r="C419" t="s">
+        <v>421</v>
+      </c>
+      <c r="D419">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>400</v>
+      </c>
+      <c r="B420">
+        <v>50</v>
+      </c>
+      <c r="C420" t="s">
+        <v>422</v>
+      </c>
+      <c r="D420">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>400</v>
+      </c>
+      <c r="B421">
+        <v>49</v>
+      </c>
+      <c r="C421" t="s">
+        <v>423</v>
+      </c>
+      <c r="D421">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>400</v>
+      </c>
+      <c r="B422">
+        <v>57</v>
+      </c>
+      <c r="C422" t="s">
+        <v>424</v>
+      </c>
+      <c r="D422">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>400</v>
+      </c>
+      <c r="B423">
+        <v>39</v>
+      </c>
+      <c r="C423" t="s">
+        <v>425</v>
+      </c>
+      <c r="D423">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>400</v>
+      </c>
+      <c r="B424">
+        <v>65</v>
+      </c>
+      <c r="C424" t="s">
+        <v>426</v>
+      </c>
+      <c r="D424">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>400</v>
+      </c>
+      <c r="B425">
+        <v>47</v>
+      </c>
+      <c r="C425" t="s">
+        <v>427</v>
+      </c>
+      <c r="D425">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>400</v>
+      </c>
+      <c r="B426">
+        <v>96</v>
+      </c>
+      <c r="C426" t="s">
+        <v>428</v>
+      </c>
+      <c r="D426">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>400</v>
+      </c>
+      <c r="B427">
+        <v>50</v>
+      </c>
+      <c r="C427" t="s">
+        <v>429</v>
+      </c>
+      <c r="D427">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>400</v>
+      </c>
+      <c r="B428">
+        <v>105</v>
+      </c>
+      <c r="C428" t="s">
+        <v>430</v>
+      </c>
+      <c r="D428">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>400</v>
+      </c>
+      <c r="B429">
+        <v>46</v>
+      </c>
+      <c r="C429" t="s">
+        <v>431</v>
+      </c>
+      <c r="D429">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>400</v>
+      </c>
+      <c r="B430">
+        <v>43</v>
+      </c>
+      <c r="C430" t="s">
+        <v>432</v>
+      </c>
+      <c r="D430">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>400</v>
+      </c>
+      <c r="B431">
+        <v>54</v>
+      </c>
+      <c r="C431" t="s">
+        <v>433</v>
+      </c>
+      <c r="D431">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>400</v>
+      </c>
+      <c r="B432">
+        <v>16</v>
+      </c>
+      <c r="C432" t="s">
+        <v>434</v>
+      </c>
+      <c r="D432">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>400</v>
+      </c>
+      <c r="B433">
+        <v>96</v>
+      </c>
+      <c r="C433" t="s">
+        <v>435</v>
+      </c>
+      <c r="D433">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>400</v>
+      </c>
+      <c r="B434">
+        <v>44</v>
+      </c>
+      <c r="C434" t="s">
+        <v>436</v>
+      </c>
+      <c r="D434">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>400</v>
+      </c>
+      <c r="B435">
+        <v>5</v>
+      </c>
+      <c r="C435" t="s">
+        <v>437</v>
+      </c>
+      <c r="D435">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>400</v>
+      </c>
+      <c r="B436">
+        <v>10</v>
+      </c>
+      <c r="C436" t="s">
+        <v>438</v>
+      </c>
+      <c r="D436">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>400</v>
+      </c>
+      <c r="B437">
+        <v>48</v>
+      </c>
+      <c r="C437" t="s">
+        <v>439</v>
+      </c>
+      <c r="D437">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>400</v>
+      </c>
+      <c r="B438">
+        <v>127</v>
+      </c>
+      <c r="C438" t="s">
+        <v>440</v>
+      </c>
+      <c r="D438">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>400</v>
+      </c>
+      <c r="B439">
+        <v>32</v>
+      </c>
+      <c r="C439" t="s">
+        <v>441</v>
+      </c>
+      <c r="D439">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>400</v>
+      </c>
+      <c r="B440">
+        <v>137</v>
+      </c>
+      <c r="C440" t="s">
+        <v>442</v>
+      </c>
+      <c r="D440">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>400</v>
+      </c>
+      <c r="B441">
+        <v>9</v>
+      </c>
+      <c r="C441" t="s">
+        <v>443</v>
+      </c>
+      <c r="D441">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>400</v>
+      </c>
+      <c r="B442">
+        <v>15</v>
+      </c>
+      <c r="C442" t="s">
+        <v>444</v>
+      </c>
+      <c r="D442">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>400</v>
+      </c>
+      <c r="B443">
+        <v>42</v>
+      </c>
+      <c r="C443" t="s">
+        <v>445</v>
+      </c>
+      <c r="D443">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>400</v>
+      </c>
+      <c r="B444">
+        <v>5</v>
+      </c>
+      <c r="C444" t="s">
+        <v>446</v>
+      </c>
+      <c r="D444">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>400</v>
+      </c>
+      <c r="B445">
+        <v>133</v>
+      </c>
+      <c r="C445" t="s">
+        <v>447</v>
+      </c>
+      <c r="D445">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>400</v>
+      </c>
+      <c r="B446">
+        <v>21</v>
+      </c>
+      <c r="C446" t="s">
+        <v>448</v>
+      </c>
+      <c r="D446">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>400</v>
+      </c>
+      <c r="B447">
+        <v>26</v>
+      </c>
+      <c r="C447" t="s">
+        <v>449</v>
+      </c>
+      <c r="D447">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>400</v>
+      </c>
+      <c r="B448">
+        <v>45</v>
+      </c>
+      <c r="C448" t="s">
+        <v>450</v>
+      </c>
+      <c r="D448">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>400</v>
+      </c>
+      <c r="B449">
+        <v>42</v>
+      </c>
+      <c r="C449" t="s">
+        <v>451</v>
+      </c>
+      <c r="D449">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>400</v>
+      </c>
+      <c r="B450">
+        <v>8</v>
+      </c>
+      <c r="C450" t="s">
+        <v>452</v>
+      </c>
+      <c r="D450">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>400</v>
+      </c>
+      <c r="B451">
+        <v>92</v>
+      </c>
+      <c r="C451" t="s">
+        <v>453</v>
+      </c>
+      <c r="D451">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>400</v>
+      </c>
+      <c r="B452">
+        <v>19</v>
+      </c>
+      <c r="C452" t="s">
+        <v>454</v>
+      </c>
+      <c r="D452">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>400</v>
+      </c>
+      <c r="B453">
+        <v>20</v>
+      </c>
+      <c r="C453" t="s">
+        <v>455</v>
+      </c>
+      <c r="D453">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>400</v>
+      </c>
+      <c r="B454">
+        <v>78</v>
+      </c>
+      <c r="C454" t="s">
+        <v>456</v>
+      </c>
+      <c r="D454">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>400</v>
+      </c>
+      <c r="B455">
+        <v>6</v>
+      </c>
+      <c r="C455" t="s">
+        <v>457</v>
+      </c>
+      <c r="D455">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>400</v>
+      </c>
+      <c r="B456">
+        <v>69</v>
+      </c>
+      <c r="C456" t="s">
+        <v>458</v>
+      </c>
+      <c r="D456">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>400</v>
+      </c>
+      <c r="B457">
+        <v>139</v>
+      </c>
+      <c r="C457" t="s">
+        <v>459</v>
+      </c>
+      <c r="D457">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>400</v>
+      </c>
+      <c r="B458">
+        <v>19</v>
+      </c>
+      <c r="C458" t="s">
+        <v>460</v>
+      </c>
+      <c r="D458">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>400</v>
+      </c>
+      <c r="B459">
+        <v>54</v>
+      </c>
+      <c r="C459" t="s">
+        <v>461</v>
+      </c>
+      <c r="D459">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>400</v>
+      </c>
+      <c r="B460">
+        <v>70</v>
+      </c>
+      <c r="C460" t="s">
+        <v>462</v>
+      </c>
+      <c r="D460">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>400</v>
+      </c>
+      <c r="B461">
+        <v>148</v>
+      </c>
+      <c r="C461" t="s">
+        <v>463</v>
+      </c>
+      <c r="D461">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>400</v>
+      </c>
+      <c r="B462">
+        <v>10</v>
+      </c>
+      <c r="C462" t="s">
+        <v>464</v>
+      </c>
+      <c r="D462">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>400</v>
+      </c>
+      <c r="B463">
+        <v>64</v>
+      </c>
+      <c r="C463" t="s">
+        <v>465</v>
+      </c>
+      <c r="D463">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>400</v>
+      </c>
+      <c r="B464">
+        <v>8</v>
+      </c>
+      <c r="C464" t="s">
+        <v>466</v>
+      </c>
+      <c r="D464">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>400</v>
+      </c>
+      <c r="B465">
+        <v>47</v>
+      </c>
+      <c r="C465" t="s">
+        <v>467</v>
+      </c>
+      <c r="D465">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>400</v>
+      </c>
+      <c r="B466">
+        <v>14</v>
+      </c>
+      <c r="C466" t="s">
+        <v>468</v>
+      </c>
+      <c r="D466">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>400</v>
+      </c>
+      <c r="B467">
+        <v>29</v>
+      </c>
+      <c r="C467" t="s">
+        <v>469</v>
+      </c>
+      <c r="D467">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>400</v>
+      </c>
+      <c r="B468">
+        <v>41</v>
+      </c>
+      <c r="C468" t="s">
+        <v>470</v>
+      </c>
+      <c r="D468">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>400</v>
+      </c>
+      <c r="B469">
+        <v>33</v>
+      </c>
+      <c r="C469" t="s">
+        <v>471</v>
+      </c>
+      <c r="D469">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>400</v>
+      </c>
+      <c r="B470">
+        <v>73</v>
+      </c>
+      <c r="C470" t="s">
+        <v>472</v>
+      </c>
+      <c r="D470">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>400</v>
+      </c>
+      <c r="B471">
+        <v>136</v>
+      </c>
+      <c r="C471" t="s">
+        <v>473</v>
+      </c>
+      <c r="D471">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>400</v>
+      </c>
+      <c r="B472">
+        <v>6</v>
+      </c>
+      <c r="C472" t="s">
+        <v>474</v>
+      </c>
+      <c r="D472">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>400</v>
+      </c>
+      <c r="B473">
+        <v>17</v>
+      </c>
+      <c r="C473" t="s">
+        <v>475</v>
+      </c>
+      <c r="D473">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>400</v>
+      </c>
+      <c r="B474">
+        <v>21</v>
+      </c>
+      <c r="C474" t="s">
+        <v>476</v>
+      </c>
+      <c r="D474">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>400</v>
+      </c>
+      <c r="B475">
+        <v>8</v>
+      </c>
+      <c r="C475" t="s">
+        <v>477</v>
+      </c>
+      <c r="D475">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>400</v>
+      </c>
+      <c r="B476">
+        <v>105</v>
+      </c>
+      <c r="C476" t="s">
+        <v>478</v>
+      </c>
+      <c r="D476">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>400</v>
+      </c>
+      <c r="B477">
+        <v>56</v>
+      </c>
+      <c r="C477" t="s">
+        <v>479</v>
+      </c>
+      <c r="D477">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>400</v>
+      </c>
+      <c r="B478">
+        <v>17</v>
+      </c>
+      <c r="C478" t="s">
+        <v>480</v>
+      </c>
+      <c r="D478">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>400</v>
+      </c>
+      <c r="B479">
+        <v>47</v>
+      </c>
+      <c r="C479" t="s">
+        <v>481</v>
+      </c>
+      <c r="D479">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>400</v>
+      </c>
+      <c r="B480">
+        <v>25</v>
+      </c>
+      <c r="C480" t="s">
+        <v>482</v>
+      </c>
+      <c r="D480">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>400</v>
+      </c>
+      <c r="B481">
+        <v>23</v>
+      </c>
+      <c r="C481" t="s">
+        <v>483</v>
+      </c>
+      <c r="D481">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>400</v>
+      </c>
+      <c r="B482">
+        <v>89</v>
+      </c>
+      <c r="C482" t="s">
+        <v>484</v>
+      </c>
+      <c r="D482">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>400</v>
+      </c>
+      <c r="B483">
+        <v>127</v>
+      </c>
+      <c r="C483" t="s">
+        <v>485</v>
+      </c>
+      <c r="D483">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>400</v>
+      </c>
+      <c r="B484">
+        <v>96</v>
+      </c>
+      <c r="C484" t="s">
+        <v>486</v>
+      </c>
+      <c r="D484">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>400</v>
+      </c>
+      <c r="B485">
+        <v>12</v>
+      </c>
+      <c r="C485" t="s">
+        <v>487</v>
+      </c>
+      <c r="D485">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>400</v>
+      </c>
+      <c r="B486">
+        <v>146</v>
+      </c>
+      <c r="C486" t="s">
+        <v>488</v>
+      </c>
+      <c r="D486">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>400</v>
+      </c>
+      <c r="B487">
+        <v>36</v>
+      </c>
+      <c r="C487" t="s">
+        <v>489</v>
+      </c>
+      <c r="D487">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>400</v>
+      </c>
+      <c r="B488">
+        <v>59</v>
+      </c>
+      <c r="C488" t="s">
+        <v>490</v>
+      </c>
+      <c r="D488">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>400</v>
+      </c>
+      <c r="B489">
+        <v>47</v>
+      </c>
+      <c r="C489" t="s">
+        <v>491</v>
+      </c>
+      <c r="D489">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>400</v>
+      </c>
+      <c r="B490">
+        <v>34</v>
+      </c>
+      <c r="C490" t="s">
+        <v>492</v>
+      </c>
+      <c r="D490">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>400</v>
+      </c>
+      <c r="B491">
+        <v>182</v>
+      </c>
+      <c r="C491" t="s">
+        <v>493</v>
+      </c>
+      <c r="D491">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>400</v>
+      </c>
+      <c r="B492">
+        <v>23</v>
+      </c>
+      <c r="C492" t="s">
+        <v>494</v>
+      </c>
+      <c r="D492">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>400</v>
+      </c>
+      <c r="B493">
+        <v>32</v>
+      </c>
+      <c r="C493" t="s">
+        <v>495</v>
+      </c>
+      <c r="D493">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>400</v>
+      </c>
+      <c r="B494">
+        <v>42</v>
+      </c>
+      <c r="C494" t="s">
+        <v>496</v>
+      </c>
+      <c r="D494">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>400</v>
+      </c>
+      <c r="B495">
+        <v>20</v>
+      </c>
+      <c r="C495" t="s">
+        <v>497</v>
+      </c>
+      <c r="D495">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>400</v>
+      </c>
+      <c r="B496">
+        <v>191</v>
+      </c>
+      <c r="C496" t="s">
+        <v>498</v>
+      </c>
+      <c r="D496">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>400</v>
+      </c>
+      <c r="B497">
+        <v>90</v>
+      </c>
+      <c r="C497" t="s">
+        <v>499</v>
+      </c>
+      <c r="D497">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>400</v>
+      </c>
+      <c r="B498">
+        <v>111</v>
+      </c>
+      <c r="C498" t="s">
+        <v>500</v>
+      </c>
+      <c r="D498">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>400</v>
+      </c>
+      <c r="B499">
+        <v>52</v>
+      </c>
+      <c r="C499" t="s">
+        <v>501</v>
+      </c>
+      <c r="D499">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>400</v>
+      </c>
+      <c r="B500">
+        <v>8</v>
+      </c>
+      <c r="C500" t="s">
+        <v>502</v>
+      </c>
+      <c r="D500">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>400</v>
+      </c>
+      <c r="B501">
+        <v>41</v>
+      </c>
+      <c r="C501" t="s">
+        <v>503</v>
+      </c>
+      <c r="D501">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D501" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="200"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>